--- a/code/Dataset/PCA_scores.xlsx
+++ b/code/Dataset/PCA_scores.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6535649299621582</v>
+        <v>0.6089487075805664</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1029767737784137</v>
+        <v>0.5013729547951494</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4658589972128124</v>
+        <v>0.5105826144770806</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5906046628952026</v>
+        <v>0.5515444874763489</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5078704517213448</v>
+        <v>-6.697882159986497</v>
       </c>
       <c r="D3" t="n">
-        <v>0.26611878593393</v>
+        <v>0.1671832763976986</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6038213968276978</v>
+        <v>0.5615766048431396</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7346996104446403</v>
+        <v>-6.090599882738374</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1542205110144878</v>
+        <v>0.1961502082134869</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6615128517150879</v>
+        <v>0.6439017057418823</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2841387750428456</v>
+        <v>3.571752237096916</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6568289869240305</v>
+        <v>0.6570375179892829</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6040422916412354</v>
+        <v>0.5931485891342163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1081209939395685</v>
+        <v>1.592506668973745</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5699967376159442</v>
+        <v>0.5626289149944352</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6272760629653931</v>
+        <v>0.5917879343032837</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04749962790516873</v>
+        <v>1.984985039757737</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5400912954731005</v>
+        <v>0.5813498535622282</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5784246921539307</v>
+        <v>0.5318425893783569</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5181035730659616</v>
+        <v>-2.515498006928449</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2610706314905201</v>
+        <v>0.3666800197211766</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6545694470405579</v>
+        <v>0.6283011436462402</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2648304074674446</v>
+        <v>-2.667136823820559</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3860141373139168</v>
+        <v>0.3594469562281252</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6310384273529053</v>
+        <v>0.6085882782936096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01738308868427234</v>
+        <v>-0.4240423658696761</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5252343484900497</v>
+        <v>0.4664409632231428</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6308994293212891</v>
+        <v>0.6081981062889099</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01041831548082756</v>
+        <v>2.177584138521214</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5217985199084989</v>
+        <v>0.5905366933082273</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5089349746704102</v>
+        <v>0.5083140730857849</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1220444686111222</v>
+        <v>1.797421607196363</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5768653994996308</v>
+        <v>0.5724032115051595</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6060904860496521</v>
+        <v>0.5642143487930298</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2665052317774689</v>
+        <v>2.296792467614198</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6481300917589692</v>
+        <v>0.5962228456464087</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4983294606208801</v>
+        <v>0.4854750633239746</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.4196070916573579</v>
+        <v>-4.158441900599327</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3096604442698492</v>
+        <v>0.2883127669161267</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5844386219978333</v>
+        <v>0.5543668270111084</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1478953442672261</v>
+        <v>1.050553562360093</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5896180297494468</v>
+        <v>0.5367781380579331</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5250140428543091</v>
+        <v>0.5246469378471375</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04073840894035691</v>
+        <v>3.11420196609218</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5367558832942898</v>
+        <v>0.6352126961575824</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.579228937625885</v>
+        <v>0.5465770959854126</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1920405377622312</v>
+        <v>-4.15539318806101</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4219224874460986</v>
+        <v>0.2884581883313927</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6666561365127563</v>
+        <v>0.6401391625404358</v>
       </c>
       <c r="C18" t="n">
-        <v>0.008520001310748133</v>
+        <v>-2.892496540082634</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5208620526479287</v>
+        <v>0.348697458375874</v>
       </c>
     </row>
     <row r="19">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5625823736190796</v>
+        <v>0.5168957710266113</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1565752556154876</v>
+        <v>3.676968974999719</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5938999620715121</v>
+        <v>0.6620562813994736</v>
       </c>
     </row>
     <row r="20">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5399317741394043</v>
+        <v>0.507938027381897</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2909615507038887</v>
+        <v>5.180159629035429</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6601947659576001</v>
+        <v>0.7337574042757995</v>
       </c>
     </row>
     <row r="21">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4993122816085815</v>
+        <v>0.4684543311595917</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.07857335845901642</v>
+        <v>-0.09822582692311477</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4778975732572369</v>
+        <v>0.4819821799220537</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6252591609954834</v>
+        <v>0.598842978477478</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6611065598680873</v>
+        <v>6.536481181705451</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8427929302705077</v>
+        <v>0.7984529756903168</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6174652576446533</v>
+        <v>0.6244564056396484</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7476178820484051</v>
+        <v>3.678066538837353</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8854702816633534</v>
+        <v>0.6621086344122971</v>
       </c>
     </row>
     <row r="24">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5844050645828247</v>
+        <v>0.5607739090919495</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1501324216872901</v>
+        <v>0.8247506518462429</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5907216140750924</v>
+        <v>0.5260075001557358</v>
       </c>
     </row>
     <row r="25">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.677757740020752</v>
+        <v>0.6487879753112793</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1229314956778259</v>
+        <v>-3.118054619094789</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4560150293137588</v>
+        <v>0.3379384987618167</v>
       </c>
     </row>
     <row r="26">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5320676565170288</v>
+        <v>0.4638515710830688</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2728965086852886</v>
+        <v>-0.6091930294073237</v>
       </c>
       <c r="D26" t="n">
-        <v>0.382035006867538</v>
+        <v>0.4576094085289298</v>
       </c>
     </row>
     <row r="27">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.6453369855880737</v>
+        <v>0.622394323348999</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.166960959581413</v>
+        <v>0.9702708053781492</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4342946249170323</v>
+        <v>0.5329487077672656</v>
       </c>
     </row>
     <row r="28">
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.6366678476333618</v>
+        <v>0.6162061095237732</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1132074809182808</v>
+        <v>-2.223931423038197</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4608120337333346</v>
+        <v>0.3805875379737808</v>
       </c>
     </row>
     <row r="29">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5833883285522461</v>
+        <v>0.5663346648216248</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2268512975295346</v>
+        <v>1.125469603865487</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6285682027095737</v>
+        <v>0.5403515798452172</v>
       </c>
     </row>
     <row r="30">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5994387865066528</v>
+        <v>0.5584570169448853</v>
       </c>
       <c r="C30" t="n">
-        <v>0.05053179320223874</v>
+        <v>0.9241720929494897</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5415871087447383</v>
+        <v>0.5307498320388849</v>
       </c>
     </row>
     <row r="31">
@@ -926,13 +926,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.6337703466415405</v>
+        <v>0.5868507623672485</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.05577322556201103</v>
+        <v>-0.5246046559688632</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4891452256907638</v>
+        <v>0.4616442136559682</v>
       </c>
     </row>
     <row r="32">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.5102736949920654</v>
+        <v>0.5282207727432251</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.3027124575737249</v>
+        <v>-4.867113246075847</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3673263456685947</v>
+        <v>0.2545096488056438</v>
       </c>
     </row>
     <row r="33">
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.5085364580154419</v>
+        <v>0.4799972176551819</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5902333062707835</v>
+        <v>7.109987010972932</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8078300760232686</v>
+        <v>0.8258087950098401</v>
       </c>
     </row>
     <row r="34">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.5765827298164368</v>
+        <v>0.5446202754974365</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3476447789167058</v>
+        <v>3.592026538009274</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6881574647992278</v>
+        <v>0.6580045876933459</v>
       </c>
     </row>
     <row r="35">
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.598788857460022</v>
+        <v>0.5794036388397217</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2134283425505577</v>
+        <v>4.996730343175308</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6219464548050148</v>
+        <v>0.7250079580699819</v>
       </c>
     </row>
     <row r="36">
@@ -1006,13 +1006,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.5887657999992371</v>
+        <v>0.5507793426513672</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.3310758880665262</v>
+        <v>-4.97714756976058</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3533342338924644</v>
+        <v>0.2492610899871395</v>
       </c>
     </row>
     <row r="37">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.6682236790657043</v>
+        <v>0.6220468282699585</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2063500949752069</v>
+        <v>3.038137213846947</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6184546475894324</v>
+        <v>0.6315844616866919</v>
       </c>
     </row>
     <row r="38">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.5893638730049133</v>
+        <v>0.5685303211212158</v>
       </c>
       <c r="C38" t="n">
-        <v>0.143275584608587</v>
+        <v>0.9346638214453556</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5873390320259895</v>
+        <v>0.5312502800107024</v>
       </c>
     </row>
     <row r="39">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.6295003294944763</v>
+        <v>0.6010332107543945</v>
       </c>
       <c r="C39" t="n">
-        <v>0.007901585639857213</v>
+        <v>1.276075827138035</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5205569787890593</v>
+        <v>0.5475353893585431</v>
       </c>
     </row>
     <row r="40">
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.5233286619186401</v>
+        <v>0.5078012943267822</v>
       </c>
       <c r="C40" t="n">
-        <v>0.02076009096735766</v>
+        <v>-0.9861148376280036</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5269002750931512</v>
+        <v>0.4396305069082735</v>
       </c>
     </row>
     <row r="41">
@@ -1086,13 +1086,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.6927887201309204</v>
+        <v>0.6428162455558777</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4484178054581881</v>
+        <v>2.578770491152127</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7378703319273857</v>
+        <v>0.6096729964039561</v>
       </c>
     </row>
     <row r="42">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.5487163662910461</v>
+        <v>0.5420522093772888</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.5922929616378594</v>
+        <v>-2.211039908491671</v>
       </c>
       <c r="D42" t="n">
-        <v>0.224471877409478</v>
+        <v>0.3812024540298917</v>
       </c>
     </row>
     <row r="43">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.5570250749588013</v>
+        <v>0.5472961664199829</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.05118604715990514</v>
+        <v>-1.917714612924895</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4914081505846904</v>
+        <v>0.3951938615760354</v>
       </c>
     </row>
     <row r="44">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.6940459012985229</v>
+        <v>0.6705746054649353</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07630910412858984</v>
+        <v>2.805642781079066</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5543034483941722</v>
+        <v>0.6204946429420128</v>
       </c>
     </row>
     <row r="45">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.5758587718009949</v>
+        <v>0.5625742077827454</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.1531386195336355</v>
+        <v>-3.464775500450316</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4411133955521737</v>
+        <v>0.321400159828484</v>
       </c>
     </row>
     <row r="46">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4978823363780975</v>
+        <v>0.4994285702705383</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.4918320488640537</v>
+        <v>-8.86820079753624</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2740307740676214</v>
+        <v>0.06366062416862389</v>
       </c>
     </row>
     <row r="47">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.647988498210907</v>
+        <v>0.6017799377441406</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.2095847293398645</v>
+        <v>-1.009863811871618</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4132676708279751</v>
+        <v>0.4384976977627029</v>
       </c>
     </row>
     <row r="48">
@@ -1198,13 +1198,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.5162319540977478</v>
+        <v>0.4961274862289429</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.0312136253666138</v>
+        <v>1.055251722073965</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5012608501106762</v>
+        <v>0.537002236927915</v>
       </c>
     </row>
     <row r="49">
@@ -1214,13 +1214,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.5761455297470093</v>
+        <v>0.5696621537208557</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.06036734594290323</v>
+        <v>-2.261979828345165</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4868788762130884</v>
+        <v>0.3787726561576659</v>
       </c>
     </row>
     <row r="50">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4925014078617096</v>
+        <v>0.4826945066452026</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.2425332216662346</v>
+        <v>-1.757267404586957</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3970136782933784</v>
+        <v>0.4028470790633287</v>
       </c>
     </row>
     <row r="51">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.5637499094009399</v>
+        <v>0.5557889938354492</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5071656786043554</v>
+        <v>1.943261391551656</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7668515515256189</v>
+        <v>0.5793596652791645</v>
       </c>
     </row>
     <row r="52">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.4927939176559448</v>
+        <v>0.4821966886520386</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.004631917875139939</v>
+        <v>0.2817672122361796</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5143740108235703</v>
+        <v>0.5001075770696212</v>
       </c>
     </row>
     <row r="53">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.577333927154541</v>
+        <v>0.5590968132019043</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4742970573834967</v>
+        <v>-0.2155253117460388</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7506369606225098</v>
+        <v>0.4763870780951244</v>
       </c>
     </row>
     <row r="54">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.6231964826583862</v>
+        <v>0.5857820510864258</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0840875647806818</v>
+        <v>1.375137313962847</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5581406813733749</v>
+        <v>0.5522605516791496</v>
       </c>
     </row>
     <row r="55">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.5909202098846436</v>
+        <v>0.5934573411941528</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2000074681856457</v>
+        <v>1.463717931161672</v>
       </c>
       <c r="D55" t="n">
-        <v>0.615325733299028</v>
+        <v>0.5564857839882927</v>
       </c>
     </row>
     <row r="56">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.5756207704544067</v>
+        <v>0.541027843952179</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.5897772804511641</v>
+        <v>-4.082664528284634</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2257129012118098</v>
+        <v>0.2919272935691455</v>
       </c>
     </row>
     <row r="57">
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.585699200630188</v>
+        <v>0.5746532678604126</v>
       </c>
       <c r="C57" t="n">
-        <v>0.06241144523410101</v>
+        <v>-1.718401820710324</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5474475218260664</v>
+        <v>0.4047009397148149</v>
       </c>
     </row>
     <row r="58">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.5113045573234558</v>
+        <v>0.513573944568634</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.1843693088081211</v>
+        <v>-6.413890821977692</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4257068213972912</v>
+        <v>0.1807294608206214</v>
       </c>
     </row>
     <row r="59">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.4683510363101959</v>
+        <v>0.4747325479984283</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.3899772256813607</v>
+        <v>-6.600085262410972</v>
       </c>
       <c r="D59" t="n">
-        <v>0.324277307937068</v>
+        <v>0.1718481187123845</v>
       </c>
     </row>
     <row r="60">
@@ -1390,13 +1390,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.5281287431716919</v>
+        <v>0.5255399942398071</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.9587619480983538</v>
+        <v>-9.808063809123135</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0436871510223838</v>
+        <v>0.01882982835454561</v>
       </c>
     </row>
     <row r="61">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.6502342820167542</v>
+        <v>0.6059603691101074</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5586162094511997</v>
+        <v>4.017769053834714</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7922328811476829</v>
+        <v>0.6783122022723218</v>
       </c>
     </row>
     <row r="62">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.6697515249252319</v>
+        <v>0.6339240074157715</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1892570028692567</v>
+        <v>-0.6821730997939914</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6100223652036029</v>
+        <v>0.4541283111842458</v>
       </c>
     </row>
     <row r="63">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.6667081713676453</v>
+        <v>0.6434110403060913</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6580142963245226</v>
+        <v>10.20803980568737</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8412674696195548</v>
+        <v>0.9735837053412657</v>
       </c>
     </row>
     <row r="64">
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.6296989321708679</v>
+        <v>0.6086956262588501</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.05776798399652944</v>
+        <v>-5.099231764225906</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4881611810072674</v>
+        <v>0.2434377609203213</v>
       </c>
     </row>
     <row r="65">
@@ -1470,13 +1470,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.6623926162719727</v>
+        <v>0.646146297454834</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2241958256317215</v>
+        <v>4.599390743307221</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6272582180227071</v>
+        <v>0.7060551423394663</v>
       </c>
     </row>
     <row r="66">
@@ -1486,13 +1486,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.4717779457569122</v>
+        <v>0.4781573414802551</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.5834403983620599</v>
+        <v>-6.125460915734796</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2288389815540804</v>
+        <v>0.1944873617849509</v>
       </c>
     </row>
     <row r="67">
@@ -1502,13 +1502,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.4484717845916748</v>
+        <v>0.4468657374382019</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.1798032706141886</v>
+        <v>0.7472048671554845</v>
       </c>
       <c r="D67" t="n">
-        <v>0.427959317504904</v>
+        <v>0.5223086214927228</v>
       </c>
     </row>
     <row r="68">
@@ -1518,13 +1518,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.6039619445800781</v>
+        <v>0.5989409685134888</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1538572377618749</v>
+        <v>2.559839181589251</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5925591225130913</v>
+        <v>0.608769986430116</v>
       </c>
     </row>
     <row r="69">
@@ -1534,13 +1534,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.7270138263702393</v>
+        <v>0.6871676445007324</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.04410783522930986</v>
+        <v>-2.428378006400741</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4948999402161726</v>
+        <v>0.3708355816560863</v>
       </c>
     </row>
     <row r="70">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.6106390953063965</v>
+        <v>0.5615541934967041</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.3754712322098698</v>
+        <v>-3.436729179076269</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3314333352070569</v>
+        <v>0.3227379493694651</v>
       </c>
     </row>
     <row r="71">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.6019207239151001</v>
+        <v>0.5924681425094604</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2477647856822708</v>
+        <v>2.058475161545996</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6388851445878183</v>
+        <v>0.5848552799952553</v>
       </c>
     </row>
     <row r="72">
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.6026602983474731</v>
+        <v>0.5930689573287964</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.2682949396852738</v>
+        <v>-0.5435121526053972</v>
       </c>
       <c r="D72" t="n">
-        <v>0.384305030862348</v>
+        <v>0.4607423395417432</v>
       </c>
     </row>
     <row r="73">
@@ -1598,13 +1598,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.6493949890136719</v>
+        <v>0.6199178695678711</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0005003756951857917</v>
+        <v>-2.177245818372203</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5169058493232235</v>
+        <v>0.3828144080436052</v>
       </c>
     </row>
     <row r="74">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.6662739515304565</v>
+        <v>0.6532189249992371</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2947458653123047</v>
+        <v>0.475815516370355</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6620616259275335</v>
+        <v>0.5093635428789567</v>
       </c>
     </row>
     <row r="75">
@@ -1630,13 +1630,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.6698733568191528</v>
+        <v>0.6401420831680298</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.08157033430480759</v>
+        <v>-1.370132266935366</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4764191194772784</v>
+        <v>0.4213131492188185</v>
       </c>
     </row>
     <row r="76">
@@ -1646,13 +1646,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.5628716945648193</v>
+        <v>0.5361326932907104</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.2686497233043081</v>
+        <v>-3.796539817017069</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3841300107054905</v>
+        <v>0.3055752383760599</v>
       </c>
     </row>
     <row r="77">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.48021000623703</v>
+        <v>0.4516919255256653</v>
       </c>
       <c r="C77" t="n">
-        <v>0.006231958104471157</v>
+        <v>1.033850483555526</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5197333261245638</v>
+        <v>0.5359814131032083</v>
       </c>
     </row>
     <row r="78">
@@ -1678,13 +1678,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.6610239744186401</v>
+        <v>0.6534938812255859</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8068165581127072</v>
+        <v>8.165455367400112</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9146738891995038</v>
+        <v>0.876153883381086</v>
       </c>
     </row>
     <row r="79">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.6505073308944702</v>
+        <v>0.6266897916793823</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6866504652822696</v>
+        <v>6.126450105084595</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8553941274298166</v>
+        <v>0.7788947855638861</v>
       </c>
     </row>
     <row r="80">
@@ -1710,13 +1710,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.6076554656028748</v>
+        <v>0.5649580359458923</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5947101861428127</v>
+        <v>9.170480967220433</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8100385889742545</v>
+        <v>0.9240928882126436</v>
       </c>
     </row>
     <row r="81">
@@ -1726,13 +1726,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.5672100186347961</v>
+        <v>0.5341765284538269</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.322100379734578</v>
+        <v>-4.432138496467944</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3577619887037198</v>
+        <v>0.2752576343562474</v>
       </c>
     </row>
     <row r="82">
@@ -1742,13 +1742,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.6262928247451782</v>
+        <v>0.5920878052711487</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1374926367589044</v>
+        <v>3.170496955730338</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5844862158714405</v>
+        <v>0.6378979270419883</v>
       </c>
     </row>
     <row r="83">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.5707912445068359</v>
+        <v>0.5570347309112549</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3561228874529026</v>
+        <v>3.539409853461192</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6923398447239247</v>
+        <v>0.6554948093402154</v>
       </c>
     </row>
     <row r="84">
@@ -1774,13 +1774,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.6546012163162231</v>
+        <v>0.6226181387901306</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.6086987335348251</v>
+        <v>-3.34899212683784</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2163786605394558</v>
+        <v>0.3269229442312045</v>
       </c>
     </row>
     <row r="85">
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.6392447948455811</v>
+        <v>0.6185123920440674</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2030737382294304</v>
+        <v>1.257403077642167</v>
       </c>
       <c r="D85" t="n">
-        <v>0.616838370961081</v>
+        <v>0.546644712515624</v>
       </c>
     </row>
     <row r="86">
@@ -1806,13 +1806,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.4946739971637726</v>
+        <v>0.4914084672927856</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.4777820971606355</v>
+        <v>-2.468223689396497</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2809618289953163</v>
+        <v>0.3689349709751328</v>
       </c>
     </row>
     <row r="87">
@@ -1822,13 +1822,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.6295468807220459</v>
+        <v>0.6249130964279175</v>
       </c>
       <c r="C87" t="n">
-        <v>0.02756331275900117</v>
+        <v>-0.7982376943105457</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5302564079054582</v>
+        <v>0.4485921127448264</v>
       </c>
     </row>
     <row r="88">
@@ -1838,13 +1838,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.5621074438095093</v>
+        <v>0.5316505432128906</v>
       </c>
       <c r="C88" t="n">
-        <v>0.05816791832952631</v>
+        <v>0.4109924722734536</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5453541254440986</v>
+        <v>0.5062715298747972</v>
       </c>
     </row>
     <row r="89">
@@ -1854,13 +1854,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.6510359048843384</v>
+        <v>0.643172562122345</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.453227283661482</v>
+        <v>-4.614458231539799</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2930750920651481</v>
+        <v>0.2665611129322554</v>
       </c>
     </row>
     <row r="90">
@@ -1870,13 +1870,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.5126422643661499</v>
+        <v>0.5227036476135254</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.5663079122050294</v>
+        <v>-5.146414641289147</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2372906976246388</v>
+        <v>0.2411871713115532</v>
       </c>
     </row>
     <row r="91">
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.4696030020713806</v>
+        <v>0.4388120174407959</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.1557676772483118</v>
+        <v>-2.815189171357755</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4398164413837071</v>
+        <v>0.3523849647672331</v>
       </c>
     </row>
     <row r="92">
@@ -1902,13 +1902,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.588657021522522</v>
+        <v>0.5652368068695068</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.1729976570128077</v>
+        <v>0.4698675085636457</v>
       </c>
       <c r="D92" t="n">
-        <v>0.431316630233343</v>
+        <v>0.5090798271457108</v>
       </c>
     </row>
     <row r="93">
@@ -1918,13 +1918,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.648728609085083</v>
+        <v>0.6184109449386597</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.1009843692899244</v>
+        <v>-3.021996130894251</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4668418806589202</v>
+        <v>0.3425204201882768</v>
       </c>
     </row>
     <row r="94">
@@ -1934,13 +1934,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.5619533658027649</v>
+        <v>0.549363911151886</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1629150360937749</v>
+        <v>2.04670224579382</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5970274722332621</v>
+        <v>0.5842937203044116</v>
       </c>
     </row>
     <row r="95">
@@ -1950,13 +1950,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.5550246834754944</v>
+        <v>0.5495946407318115</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.445305879495111</v>
+        <v>-5.665031109666629</v>
       </c>
       <c r="D95" t="n">
-        <v>0.296982841254651</v>
+        <v>0.2164495353869377</v>
       </c>
     </row>
     <row r="96">
@@ -1966,13 +1966,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.5686579942703247</v>
+        <v>0.5374869108200073</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.1629082093746493</v>
+        <v>-2.946469578194654</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4362939082515417</v>
+        <v>0.3461229829244143</v>
       </c>
     </row>
     <row r="97">
@@ -1982,13 +1982,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.5471996068954468</v>
+        <v>0.517577052116394</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1481056192070997</v>
+        <v>-1.718997094388399</v>
       </c>
       <c r="D97" t="n">
-        <v>0.589721761576356</v>
+        <v>0.4046725455846212</v>
       </c>
     </row>
     <row r="98">
@@ -1998,13 +1998,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.565508246421814</v>
+        <v>0.5218163728713989</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.1248023030335999</v>
+        <v>1.865728713376931</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4550921315831673</v>
+        <v>0.5756614117876253</v>
       </c>
     </row>
     <row r="99">
@@ -2014,13 +2014,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.4943343698978424</v>
+        <v>0.4687840342521667</v>
       </c>
       <c r="C99" t="n">
-        <v>0.2411974367306554</v>
+        <v>1.022797107341454</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6356453714360066</v>
+        <v>0.5354541749355176</v>
       </c>
     </row>
     <row r="100">
@@ -2030,13 +2030,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.5364487171173096</v>
+        <v>0.5169509649276733</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5582596549143288</v>
+        <v>4.307263364047276</v>
       </c>
       <c r="D100" t="n">
-        <v>0.7920569873701143</v>
+        <v>0.6921208745474057</v>
       </c>
     </row>
     <row r="101">
@@ -2046,13 +2046,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.6292991042137146</v>
+        <v>0.611096978187561</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.2080130262619747</v>
+        <v>0.600827331679922</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4140430158677897</v>
+        <v>0.5153265173735353</v>
       </c>
     </row>
     <row r="102">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.6166608333587646</v>
+        <v>0.5822498798370361</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1287741067224956</v>
+        <v>1.647929835450416</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5801852323629771</v>
+        <v>0.565272560535385</v>
       </c>
     </row>
     <row r="103">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.6184797883033752</v>
+        <v>0.6003119349479675</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2531241825039378</v>
+        <v>3.932617476550915</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6415290165764495</v>
+        <v>0.6742505327232551</v>
       </c>
     </row>
     <row r="104">
@@ -2094,13 +2094,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.5993658304214478</v>
+        <v>0.5920939445495605</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.311143558720001</v>
+        <v>-2.222055263583976</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3631671552045042</v>
+        <v>0.3806770294426117</v>
       </c>
     </row>
     <row r="105">
@@ -2110,13 +2110,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.4801582098007202</v>
+        <v>0.4917824268341064</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1892974460581747</v>
+        <v>6.30877424769743</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6100423164439885</v>
+        <v>0.7875915172244417</v>
       </c>
     </row>
     <row r="106">
@@ -2126,13 +2126,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.5761522054672241</v>
+        <v>0.5428372621536255</v>
       </c>
       <c r="C106" t="n">
-        <v>0.04467052759598132</v>
+        <v>1.49683176052678</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5386956572493644</v>
+        <v>0.5580652900488439</v>
       </c>
     </row>
     <row r="107">
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.6018693447113037</v>
+        <v>0.5823487043380737</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4005189436598717</v>
+        <v>3.734814435544779</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7142410946811519</v>
+        <v>0.6648154686411211</v>
       </c>
     </row>
     <row r="108">
@@ -2158,13 +2158,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.6525880694389343</v>
+        <v>0.634444534778595</v>
       </c>
       <c r="C108" t="n">
-        <v>0.34925926114101</v>
+        <v>4.413634604617129</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6889539134427998</v>
+        <v>0.6971947069120028</v>
       </c>
     </row>
     <row r="109">
@@ -2174,13 +2174,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.6410967111587524</v>
+        <v>0.62579345703125</v>
       </c>
       <c r="C109" t="n">
-        <v>0.2041286489763568</v>
+        <v>1.425910528250185</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6173587744816841</v>
+        <v>0.5546823978146804</v>
       </c>
     </row>
     <row r="110">
@@ -2190,13 +2190,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.6437033414840698</v>
+        <v>0.6302820444107056</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4519159429842814</v>
+        <v>5.185782488712688</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7395960163887838</v>
+        <v>0.7340256106750032</v>
       </c>
     </row>
     <row r="111">
@@ -2206,13 +2206,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.5003728270530701</v>
+        <v>0.5177156925201416</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.3828007576105204</v>
+        <v>-4.84309918317602</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3278175688173771</v>
+        <v>0.2556551024911877</v>
       </c>
     </row>
     <row r="112">
@@ -2222,13 +2222,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.5268905758857727</v>
+        <v>0.5183564424514771</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.4026660134260805</v>
+        <v>-6.920319032464281</v>
       </c>
       <c r="D112" t="n">
-        <v>0.318017735898602</v>
+        <v>0.1565731961108527</v>
       </c>
     </row>
     <row r="113">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.4951200187206268</v>
+        <v>0.4861728250980377</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3459822835146021</v>
+        <v>1.550024686697159</v>
       </c>
       <c r="D113" t="n">
-        <v>0.687337330524587</v>
+        <v>0.5606025547166716</v>
       </c>
     </row>
     <row r="114">
@@ -2254,13 +2254,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.6371972560882568</v>
+        <v>0.5920306444168091</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.3678127234978384</v>
+        <v>-2.197379590963713</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3352113940693094</v>
+        <v>0.3818540414402924</v>
       </c>
     </row>
     <row r="115">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.6492902636528015</v>
+        <v>0.6273502111434937</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5047254226600459</v>
+        <v>4.412775416343813</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7656477361428566</v>
+        <v>0.6971537242437076</v>
       </c>
     </row>
     <row r="116">
@@ -2286,13 +2286,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.4937557578086853</v>
+        <v>0.4919197261333466</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1672617310959326</v>
+        <v>0.2653878681247253</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5991717630073409</v>
+        <v>0.4993262940290328</v>
       </c>
     </row>
     <row r="117">
@@ -2302,13 +2302,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.4665208160877228</v>
+        <v>0.4465136528015137</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.470228976975767</v>
+        <v>-4.801837292825728</v>
       </c>
       <c r="D117" t="n">
-        <v>0.284687898093765</v>
+        <v>0.2576232652536243</v>
       </c>
     </row>
     <row r="118">
@@ -2318,13 +2318,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.4310147166252136</v>
+        <v>0.3993527889251709</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.7381311231797032</v>
+        <v>-7.592561211645401</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1525276935761176</v>
+        <v>0.1245077232696615</v>
       </c>
     </row>
     <row r="119">
@@ -2334,13 +2334,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.4353118538856506</v>
+        <v>0.4455098509788513</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2673241293701605</v>
+        <v>4.339824179191722</v>
       </c>
       <c r="D119" t="n">
-        <v>0.648534066399944</v>
+        <v>0.6936740022237635</v>
       </c>
     </row>
     <row r="120">
@@ -2350,13 +2350,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.6329091787338257</v>
+        <v>0.6051150560379028</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.1088509419922147</v>
+        <v>-2.056691358598306</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4629611806648403</v>
+        <v>0.3885647698558813</v>
       </c>
     </row>
     <row r="121">
@@ -2366,13 +2366,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.6551796793937683</v>
+        <v>0.6307796835899353</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.2126849873425264</v>
+        <v>-4.673511357239036</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4117382663887237</v>
+        <v>0.2637443209234543</v>
       </c>
     </row>
     <row r="122">
@@ -2382,13 +2382,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.5848296284675598</v>
+        <v>0.5610477924346924</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4508141438871061</v>
+        <v>3.349587620728481</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7390524821316555</v>
+        <v>0.6464404241248166</v>
       </c>
     </row>
     <row r="123">
@@ -2398,13 +2398,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.5827524662017822</v>
+        <v>0.571408212184906</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.3199362802395466</v>
+        <v>-1.962828815270699</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3588295719086791</v>
+        <v>0.3930419462769485</v>
       </c>
     </row>
     <row r="124">
@@ -2414,13 +2414,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.6277687549591064</v>
+        <v>0.611966609954834</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.5367947995335188</v>
+        <v>-5.488448915175907</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2518499651104993</v>
+        <v>0.2248723802143443</v>
       </c>
     </row>
     <row r="125">
@@ -2430,13 +2430,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.6503074169158936</v>
+        <v>0.6334807872772217</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.08171378158848461</v>
+        <v>-1.727918697179251</v>
       </c>
       <c r="D125" t="n">
-        <v>0.47634835474987</v>
+        <v>0.4042469914899072</v>
       </c>
     </row>
     <row r="126">
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.5333012938499451</v>
+        <v>0.5023958683013916</v>
       </c>
       <c r="C126" t="n">
-        <v>0.2516171297780379</v>
+        <v>0.4497594106585239</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6407855645388454</v>
+        <v>0.5081206852066403</v>
       </c>
     </row>
     <row r="127">
@@ -2462,13 +2462,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.5479312539100647</v>
+        <v>0.5384917259216309</v>
       </c>
       <c r="C127" t="n">
-        <v>0.03013280916994101</v>
+        <v>1.848145451580926</v>
       </c>
       <c r="D127" t="n">
-        <v>0.531523979576641</v>
+        <v>0.5748227027315138</v>
       </c>
     </row>
     <row r="128">
@@ -2478,13 +2478,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.5768845081329346</v>
+        <v>0.5853080749511719</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.260332706850622</v>
+        <v>-0.7133569840951213</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3882329214550708</v>
+        <v>0.4526408621277782</v>
       </c>
     </row>
     <row r="129">
@@ -2494,13 +2494,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.5079969167709351</v>
+        <v>0.4788523614406586</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5602760849673937</v>
+        <v>6.670897879852646</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7930517229927462</v>
+        <v>0.8048645563934078</v>
       </c>
     </row>
     <row r="130">
@@ -2510,13 +2510,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.5801680088043213</v>
+        <v>0.5522424578666687</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.4644999627492562</v>
+        <v>-3.202912470012149</v>
       </c>
       <c r="D130" t="n">
-        <v>0.287514107971471</v>
+        <v>0.3338908397510908</v>
       </c>
     </row>
     <row r="131">
@@ -2526,10 +2526,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.6559535264968872</v>
+        <v>0.6165109872817993</v>
       </c>
       <c r="C131" t="n">
-        <v>0.9797812436178315</v>
+        <v>10.76184880689024</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -2542,13 +2542,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.586198627948761</v>
+        <v>0.5527165532112122</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.2529928989485422</v>
+        <v>-2.159238350330802</v>
       </c>
       <c r="D132" t="n">
-        <v>0.391853760359141</v>
+        <v>0.3836733514352911</v>
       </c>
     </row>
     <row r="133">
@@ -2558,13 +2558,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.6379528045654297</v>
+        <v>0.6206855773925781</v>
       </c>
       <c r="C133" t="n">
-        <v>0.2737638494162782</v>
+        <v>1.548105995126174</v>
       </c>
       <c r="D133" t="n">
-        <v>0.65171087827096</v>
+        <v>0.5605110344961836</v>
       </c>
     </row>
     <row r="134">
@@ -2574,13 +2574,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.6528353691101074</v>
+        <v>0.6322867870330811</v>
       </c>
       <c r="C134" t="n">
-        <v>0.3985427702439445</v>
+        <v>5.54010353310223</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7132662182700743</v>
+        <v>0.7509264719684363</v>
       </c>
     </row>
     <row r="135">
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.6451408267021179</v>
+        <v>0.6279170513153076</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.1503398824280086</v>
+        <v>-2.862612824082702</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4424940551456553</v>
+        <v>0.350122890331002</v>
       </c>
     </row>
     <row r="136">
@@ -2606,13 +2606,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.6073379516601562</v>
+        <v>0.5792423486709595</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.3016629334794083</v>
+        <v>-5.134189527598466</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3678440918715143</v>
+        <v>0.2417703005217829</v>
       </c>
     </row>
     <row r="137">
@@ -2622,13 +2622,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.6233311295509338</v>
+        <v>0.6178632974624634</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.3424280373601518</v>
+        <v>-0.4677070477131579</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3477340459372013</v>
+        <v>0.464358189018946</v>
       </c>
     </row>
     <row r="138">
@@ -2638,13 +2638,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.6425944566726685</v>
+        <v>0.5990484952926636</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.3120230244094866</v>
+        <v>-2.099012950090481</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3627333013999131</v>
+        <v>0.386546060104224</v>
       </c>
     </row>
     <row r="139">
@@ -2654,13 +2654,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.6298503875732422</v>
+        <v>0.6203866004943848</v>
       </c>
       <c r="C139" t="n">
-        <v>0.05385263020416433</v>
+        <v>4.240680368131419</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5432253281601593</v>
+        <v>0.6889449130957964</v>
       </c>
     </row>
     <row r="140">
@@ -2670,13 +2670,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.5849387049674988</v>
+        <v>0.5518020391464233</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1673862453557594</v>
+        <v>2.341309251154587</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5992331877860417</v>
+        <v>0.5983462644942567</v>
       </c>
     </row>
     <row r="141">
@@ -2686,13 +2686,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.6106394529342651</v>
+        <v>0.5932838320732117</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3773239563379802</v>
+        <v>4.475018783576592</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7027986545526137</v>
+        <v>0.7001226884999793</v>
       </c>
     </row>
     <row r="142">
@@ -2702,13 +2702,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.6000372767448425</v>
+        <v>0.5782764554023743</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.2923413112956185</v>
+        <v>-2.249312386625144</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3724425899115714</v>
+        <v>0.3793768840996488</v>
       </c>
     </row>
     <row r="143">
@@ -2718,13 +2718,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.6041790843009949</v>
+        <v>0.5907612442970276</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2268799433389212</v>
+        <v>4.30019523001895</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6285823341231541</v>
+        <v>0.6917837295917005</v>
       </c>
     </row>
     <row r="144">
@@ -2734,13 +2734,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.4934472143650055</v>
+        <v>0.4650152027606964</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.4340230853832484</v>
+        <v>-2.042539358456739</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3025488152435983</v>
+        <v>0.3892398101765299</v>
       </c>
     </row>
     <row r="145">
@@ -2750,13 +2750,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.6003526449203491</v>
+        <v>0.5776482820510864</v>
       </c>
       <c r="C145" t="n">
-        <v>0.3982676123712925</v>
+        <v>4.748876617590916</v>
       </c>
       <c r="D145" t="n">
-        <v>0.713130478705313</v>
+        <v>0.7131855120044946</v>
       </c>
     </row>
     <row r="146">
@@ -2766,13 +2766,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.6471347808837891</v>
+        <v>0.6327609419822693</v>
       </c>
       <c r="C146" t="n">
-        <v>0.2244518142870596</v>
+        <v>3.393447979649222</v>
       </c>
       <c r="D146" t="n">
-        <v>0.6273845011209318</v>
+        <v>0.6485325319861399</v>
       </c>
     </row>
     <row r="147">
@@ -2782,13 +2782,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.4996267855167389</v>
+        <v>0.5031437873840332</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.1176268996471948</v>
+        <v>-1.703098806054957</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4586318672384466</v>
+        <v>0.4054308826074459</v>
       </c>
     </row>
     <row r="148">
@@ -2798,13 +2798,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.598631739616394</v>
+        <v>0.6016309261322021</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2993048564041779</v>
+        <v>1.534901378466397</v>
       </c>
       <c r="D148" t="n">
-        <v>0.6643106455924876</v>
+        <v>0.5598811836924178</v>
       </c>
     </row>
     <row r="149">
@@ -2814,13 +2814,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.5394271016120911</v>
+        <v>0.5098466873168945</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.5042364366043265</v>
+        <v>-4.049678007952124</v>
       </c>
       <c r="D149" t="n">
-        <v>0.2679115008781386</v>
+        <v>0.2935007270795747</v>
       </c>
     </row>
     <row r="150">
@@ -2830,13 +2830,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.6577417850494385</v>
+        <v>0.6353102922439575</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.1676844341503878</v>
+        <v>-0.6044445888938974</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4339377239053986</v>
+        <v>0.4578359057572155</v>
       </c>
     </row>
     <row r="151">
@@ -2846,13 +2846,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.6626483798027039</v>
+        <v>0.6406639814376831</v>
       </c>
       <c r="C151" t="n">
-        <v>0.2762849914722319</v>
+        <v>-1.130732046994329</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6529545960031772</v>
+        <v>0.4327323690899154</v>
       </c>
     </row>
     <row r="152">
@@ -2862,13 +2862,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.5399830341339111</v>
+        <v>0.5315443277359009</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.4741111414371103</v>
+        <v>-5.021253516118691</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2827727673027198</v>
+        <v>0.2471572677800833</v>
       </c>
     </row>
     <row r="153">
@@ -2878,13 +2878,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.513590931892395</v>
+        <v>0.52373206615448</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5716533698860864</v>
+        <v>1.875000599914767</v>
       </c>
       <c r="D153" t="n">
-        <v>0.7986643107342619</v>
+        <v>0.5761036741674238</v>
       </c>
     </row>
     <row r="154">
@@ -2894,13 +2894,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.6313239932060242</v>
+        <v>0.6203064918518066</v>
       </c>
       <c r="C154" t="n">
-        <v>0.3070484920961111</v>
+        <v>1.142713568066819</v>
       </c>
       <c r="D154" t="n">
-        <v>0.6681306988890261</v>
+        <v>0.5411741046478795</v>
       </c>
     </row>
     <row r="155">
@@ -2910,13 +2910,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.5798293352127075</v>
+        <v>0.5793581008911133</v>
       </c>
       <c r="C155" t="n">
-        <v>0.3062339547915468</v>
+        <v>0.7748305868251087</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6677288752445207</v>
+        <v>0.5236263486321651</v>
       </c>
     </row>
     <row r="156">
@@ -2926,13 +2926,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.5074582695960999</v>
+        <v>0.5084507465362549</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.006736000282967157</v>
+        <v>-0.1470476488998137</v>
       </c>
       <c r="D156" t="n">
-        <v>0.5133360349608135</v>
+        <v>0.4796534138089866</v>
       </c>
     </row>
     <row r="157">
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.5400161743164062</v>
+        <v>0.5356773138046265</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.6186357999133876</v>
+        <v>-4.865005559000608</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2114765545149055</v>
+        <v>0.2546101839769881</v>
       </c>
     </row>
     <row r="158">
@@ -2958,13 +2958,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.6593829989433289</v>
+        <v>0.6338465809822083</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2104908649152711</v>
+        <v>-0.1722418220289565</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6204973523974888</v>
+        <v>0.4784516697065668</v>
       </c>
     </row>
     <row r="159">
@@ -2974,13 +2974,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.5868260860443115</v>
+        <v>0.5621199607849121</v>
       </c>
       <c r="C159" t="n">
-        <v>0.4221614210414607</v>
+        <v>2.617623116924626</v>
       </c>
       <c r="D159" t="n">
-        <v>0.7249176580366468</v>
+        <v>0.6115262389631103</v>
       </c>
     </row>
     <row r="160">
@@ -2990,13 +2990,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.5902484059333801</v>
+        <v>0.5745136737823486</v>
       </c>
       <c r="C160" t="n">
-        <v>0.2432131894636468</v>
+        <v>0.1676213364046273</v>
       </c>
       <c r="D160" t="n">
-        <v>0.6366397729263417</v>
+        <v>0.4946629001440092</v>
       </c>
     </row>
     <row r="161">
@@ -3006,13 +3006,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.5254615545272827</v>
+        <v>0.4760896563529968</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.528672352269357</v>
+        <v>-0.9027451719606985</v>
       </c>
       <c r="D161" t="n">
-        <v>0.2558568919187612</v>
+        <v>0.4436071805431987</v>
       </c>
     </row>
     <row r="162">
@@ -3022,13 +3022,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.5900819301605225</v>
+        <v>0.5635689496994019</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.02539049207706778</v>
+        <v>-3.707940886451239</v>
       </c>
       <c r="D162" t="n">
-        <v>0.5041334903540809</v>
+        <v>0.3098013442197574</v>
       </c>
     </row>
     <row r="163">
@@ -3038,13 +3038,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.6414768695831299</v>
+        <v>0.6212589740753174</v>
       </c>
       <c r="C163" t="n">
-        <v>0.2399899842167907</v>
+        <v>2.89955811863117</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6350497167410412</v>
+        <v>0.6249743376099622</v>
       </c>
     </row>
     <row r="164">
@@ -3054,13 +3054,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.6286449432373047</v>
+        <v>0.5993941426277161</v>
       </c>
       <c r="C164" t="n">
-        <v>0.02974549387893271</v>
+        <v>1.62027912877211</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5313329110510701</v>
+        <v>0.5639536415334369</v>
       </c>
     </row>
     <row r="165">
@@ -3070,13 +3070,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.6539729237556458</v>
+        <v>0.6187034845352173</v>
       </c>
       <c r="C165" t="n">
-        <v>0.1617987329128267</v>
+        <v>0.2466088405727034</v>
       </c>
       <c r="D165" t="n">
-        <v>0.5964767828909471</v>
+        <v>0.4984305477985794</v>
       </c>
     </row>
     <row r="166">
@@ -3086,13 +3086,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.5564670562744141</v>
+        <v>0.5395313501358032</v>
       </c>
       <c r="C166" t="n">
-        <v>0.1036984873654058</v>
+        <v>-0.8121115449893903</v>
       </c>
       <c r="D166" t="n">
-        <v>0.5678150478400172</v>
+        <v>0.4479303399553131</v>
       </c>
     </row>
     <row r="167">
@@ -3102,13 +3102,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.6068638563156128</v>
+        <v>0.5991362333297729</v>
       </c>
       <c r="C167" t="n">
-        <v>0.03198391083388376</v>
+        <v>-0.8878585239381908</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5324371561896548</v>
+        <v>0.444317263044186</v>
       </c>
     </row>
     <row r="168">
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.6663317680358887</v>
+        <v>0.6599998474121094</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.08389198579683924</v>
+        <v>-0.1633117049672299</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4752738134752427</v>
+        <v>0.4788776299259334</v>
       </c>
     </row>
     <row r="169">
@@ -3134,13 +3134,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.6847246289253235</v>
+        <v>0.6455689668655396</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.1793613370705935</v>
+        <v>0.5704828334346017</v>
       </c>
       <c r="D169" t="n">
-        <v>0.4281773300454242</v>
+        <v>0.5138791064337008</v>
       </c>
     </row>
     <row r="170">
@@ -3150,13 +3150,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.5467116236686707</v>
+        <v>0.5033893585205078</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.1746046635040745</v>
+        <v>-3.686926703136106</v>
       </c>
       <c r="D170" t="n">
-        <v>0.4305238694826122</v>
+        <v>0.3108037057871199</v>
       </c>
     </row>
     <row r="171">
@@ -3166,13 +3166,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.6568142771720886</v>
+        <v>0.6454187631607056</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.2589851788057184</v>
+        <v>-2.652619583877794</v>
       </c>
       <c r="D171" t="n">
-        <v>0.3888976775405714</v>
+        <v>0.3601394182269853</v>
       </c>
     </row>
     <row r="172">
@@ -3182,13 +3182,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.5577454566955566</v>
+        <v>0.530933141708374</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.2618635657611426</v>
+        <v>-1.356390641077888</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3874777254644122</v>
+        <v>0.4219686149785891</v>
       </c>
     </row>
     <row r="173">
@@ -3198,13 +3198,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.6417571902275085</v>
+        <v>0.6242344975471497</v>
       </c>
       <c r="C173" t="n">
-        <v>0.248889672979859</v>
+        <v>1.217433647825902</v>
       </c>
       <c r="D173" t="n">
-        <v>0.6394400686054684</v>
+        <v>0.5447381991995262</v>
       </c>
     </row>
     <row r="174">
@@ -3214,13 +3214,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.62321937084198</v>
+        <v>0.587064266204834</v>
       </c>
       <c r="C174" t="n">
-        <v>0.4191470551020231</v>
+        <v>6.830805568408477</v>
       </c>
       <c r="D174" t="n">
-        <v>0.7234306254589239</v>
+        <v>0.8124920391716093</v>
       </c>
     </row>
     <row r="175">
@@ -3230,13 +3230,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.7007288932800293</v>
+        <v>0.6638534069061279</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.3742510415812717</v>
+        <v>-2.2819510346928</v>
       </c>
       <c r="D175" t="n">
-        <v>0.3320352738078148</v>
+        <v>0.3778200438483253</v>
       </c>
     </row>
     <row r="176">
@@ -3246,13 +3246,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.539635181427002</v>
+        <v>0.4918597936630249</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.1300525429729452</v>
+        <v>-3.334439759740826</v>
       </c>
       <c r="D176" t="n">
-        <v>0.4525021083452706</v>
+        <v>0.3276170817702871</v>
       </c>
     </row>
     <row r="177">
@@ -3262,13 +3262,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.5632081031799316</v>
+        <v>0.5213007926940918</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.09730189972925109</v>
+        <v>-3.116676645162364</v>
       </c>
       <c r="D177" t="n">
-        <v>0.4686584989173575</v>
+        <v>0.338004227136314</v>
       </c>
     </row>
     <row r="178">
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.6263194680213928</v>
+        <v>0.6202660799026489</v>
       </c>
       <c r="C178" t="n">
-        <v>0.1399208438013214</v>
+        <v>3.15744088102166</v>
       </c>
       <c r="D178" t="n">
-        <v>0.5856840873475903</v>
+        <v>0.6372751615834245</v>
       </c>
     </row>
     <row r="179">
@@ -3294,13 +3294,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.5753966569900513</v>
+        <v>0.5506722927093506</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.2171298429975591</v>
+        <v>1.741186182600357</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4095455514711904</v>
+        <v>0.5697208218308123</v>
       </c>
     </row>
     <row r="180">
@@ -3310,13 +3310,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.5554367899894714</v>
+        <v>0.5470341444015503</v>
       </c>
       <c r="C180" t="n">
-        <v>0.1462329232634967</v>
+        <v>-1.621319799511857</v>
       </c>
       <c r="D180" t="n">
-        <v>0.588797932176656</v>
+        <v>0.4093316829358062</v>
       </c>
     </row>
     <row r="181">
@@ -3326,13 +3326,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.5796414613723755</v>
+        <v>0.566189169883728</v>
       </c>
       <c r="C181" t="n">
-        <v>0.4985733961675869</v>
+        <v>2.831841984803995</v>
       </c>
       <c r="D181" t="n">
-        <v>0.7626128478787573</v>
+        <v>0.6217443262875684</v>
       </c>
     </row>
     <row r="182">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.6120546460151672</v>
+        <v>0.573798656463623</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.357841451959574</v>
+        <v>-3.366502059479402</v>
       </c>
       <c r="D182" t="n">
-        <v>0.3401303740195293</v>
+        <v>0.3260877329234984</v>
       </c>
     </row>
     <row r="183">
@@ -3358,13 +3358,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.6817898154258728</v>
+        <v>0.6526918411254883</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.0261253508189209</v>
+        <v>-3.441677739129548</v>
       </c>
       <c r="D183" t="n">
-        <v>0.5037709733567705</v>
+        <v>0.3225019065817532</v>
       </c>
     </row>
     <row r="184">
@@ -3374,13 +3374,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.6549761891365051</v>
+        <v>0.6426115036010742</v>
       </c>
       <c r="C184" t="n">
-        <v>0.1898992228124831</v>
+        <v>3.248656386393672</v>
       </c>
       <c r="D184" t="n">
-        <v>0.6103391820721676</v>
+        <v>0.6416260761805488</v>
       </c>
     </row>
     <row r="185">
@@ -3390,13 +3390,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.5938572883605957</v>
+        <v>0.5571202039718628</v>
       </c>
       <c r="C185" t="n">
-        <v>0.4687179812524106</v>
+        <v>4.133481785875788</v>
       </c>
       <c r="D185" t="n">
-        <v>0.747884717488397</v>
+        <v>0.6838316171224327</v>
       </c>
     </row>
     <row r="186">
@@ -3406,13 +3406,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.5756751298904419</v>
+        <v>0.5633779764175415</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.5662659145943797</v>
+        <v>-3.56965293120209</v>
       </c>
       <c r="D186" t="n">
-        <v>0.2373114156849133</v>
+        <v>0.3163975811275738</v>
       </c>
     </row>
     <row r="187">
@@ -3422,13 +3422,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.6105802059173584</v>
+        <v>0.572900116443634</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.07669567463011977</v>
+        <v>-1.084846824803114</v>
       </c>
       <c r="D187" t="n">
-        <v>0.4788238632566368</v>
+        <v>0.434921061486124</v>
       </c>
     </row>
     <row r="188">
@@ -3438,13 +3438,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.6505584120750427</v>
+        <v>0.6103224754333496</v>
       </c>
       <c r="C188" t="n">
-        <v>0.1526537986583029</v>
+        <v>2.9615868073947</v>
       </c>
       <c r="D188" t="n">
-        <v>0.5919654476944822</v>
+        <v>0.6279330618562518</v>
       </c>
     </row>
     <row r="189">
@@ -3454,13 +3454,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.6623169779777527</v>
+        <v>0.6355587244033813</v>
       </c>
       <c r="C189" t="n">
-        <v>0.02107983888158502</v>
+        <v>-1.232230025801626</v>
       </c>
       <c r="D189" t="n">
-        <v>0.5270580116038031</v>
+        <v>0.4278909878382277</v>
       </c>
     </row>
     <row r="190">
@@ -3470,13 +3470,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.6408289074897766</v>
+        <v>0.61600661277771</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.07384996683790969</v>
+        <v>-2.544461296523357</v>
       </c>
       <c r="D190" t="n">
-        <v>0.48022769420441</v>
+        <v>0.365298491449582</v>
       </c>
     </row>
     <row r="191">
@@ -3486,13 +3486,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.5419023036956787</v>
+        <v>0.5528470277786255</v>
       </c>
       <c r="C191" t="n">
-        <v>0.306440144458838</v>
+        <v>2.662004387923395</v>
       </c>
       <c r="D191" t="n">
-        <v>0.6678305917443127</v>
+        <v>0.6136431939593026</v>
       </c>
     </row>
     <row r="192">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.6635817289352417</v>
+        <v>0.6331571340560913</v>
       </c>
       <c r="C192" t="n">
-        <v>0.1394355218182461</v>
+        <v>-0.1721876909743929</v>
       </c>
       <c r="D192" t="n">
-        <v>0.5854446706297738</v>
+        <v>0.4784542517192903</v>
       </c>
     </row>
     <row r="193">
@@ -3518,13 +3518,13 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.5206177234649658</v>
+        <v>0.492002546787262</v>
       </c>
       <c r="C193" t="n">
-        <v>0.2743312647284493</v>
+        <v>3.123863418410827</v>
       </c>
       <c r="D193" t="n">
-        <v>0.6519907928769666</v>
+        <v>0.6356735405474828</v>
       </c>
     </row>
     <row r="194">
@@ -3534,13 +3534,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.5657666921615601</v>
+        <v>0.5528888702392578</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.2653882798054683</v>
+        <v>-0.3364673090385648</v>
       </c>
       <c r="D194" t="n">
-        <v>0.3857389304022416</v>
+        <v>0.470618231019407</v>
       </c>
     </row>
     <row r="195">
@@ -3550,13 +3550,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.6589089632034302</v>
+        <v>0.6451815962791443</v>
       </c>
       <c r="C195" t="n">
-        <v>0.3797406003799101</v>
+        <v>6.250884910578463</v>
       </c>
       <c r="D195" t="n">
-        <v>0.7039908218247067</v>
+        <v>0.7848302371014897</v>
       </c>
     </row>
     <row r="196">
@@ -3566,13 +3566,13 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.5563656091690063</v>
+        <v>0.5537900924682617</v>
       </c>
       <c r="C196" t="n">
-        <v>0.0871391485664109</v>
+        <v>1.414057886302047</v>
       </c>
       <c r="D196" t="n">
-        <v>0.5596460740808962</v>
+        <v>0.55411703524111</v>
       </c>
     </row>
     <row r="197">
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.6525574326515198</v>
+        <v>0.6298319101333618</v>
       </c>
       <c r="C197" t="n">
-        <v>0.2219833151698339</v>
+        <v>-0.2782890195699348</v>
       </c>
       <c r="D197" t="n">
-        <v>0.6261667529512854</v>
+        <v>0.4733932939635022</v>
       </c>
     </row>
     <row r="198">
@@ -3598,13 +3598,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.5766087770462036</v>
+        <v>0.589600682258606</v>
       </c>
       <c r="C198" t="n">
-        <v>0.2767428765967098</v>
+        <v>3.92677452646101</v>
       </c>
       <c r="D198" t="n">
-        <v>0.6531804777012302</v>
+        <v>0.6739718281682263</v>
       </c>
     </row>
     <row r="199">
@@ -3614,13 +3614,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.4774242341518402</v>
+        <v>0.4866994321346283</v>
       </c>
       <c r="C199" t="n">
-        <v>0.1740748402414221</v>
+        <v>3.613867877854517</v>
       </c>
       <c r="D199" t="n">
-        <v>0.6025327734017238</v>
+        <v>0.6590464040376818</v>
       </c>
     </row>
     <row r="200">
@@ -3630,13 +3630,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.6132348775863647</v>
+        <v>0.6090582609176636</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.1721385148017262</v>
+        <v>-3.915403186797074</v>
       </c>
       <c r="D200" t="n">
-        <v>0.431740458156841</v>
+        <v>0.2999055403512558</v>
       </c>
     </row>
     <row r="201">
@@ -3646,13 +3646,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.5143576264381409</v>
+        <v>0.5265689492225647</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.3457430583975878</v>
+        <v>-2.836232546656674</v>
       </c>
       <c r="D201" t="n">
-        <v>0.3460986956255455</v>
+        <v>0.351381210763049</v>
       </c>
     </row>
     <row r="202">
@@ -3662,13 +3662,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.612079381942749</v>
+        <v>0.5960564613342285</v>
       </c>
       <c r="C202" t="n">
-        <v>0.1176841870589699</v>
+        <v>4.056547251167148</v>
       </c>
       <c r="D202" t="n">
-        <v>0.5747144062737374</v>
+        <v>0.68016189464793</v>
       </c>
     </row>
     <row r="203">
@@ -3678,13 +3678,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.6136065721511841</v>
+        <v>0.5871102809906006</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.1161233308208812</v>
+        <v>-1.540833994740666</v>
       </c>
       <c r="D203" t="n">
-        <v>0.4593736006153816</v>
+        <v>0.4131707984613089</v>
       </c>
     </row>
     <row r="204">
@@ -3694,13 +3694,13 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.7129106521606445</v>
+        <v>0.6741257905960083</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.01744501780381881</v>
+        <v>-1.046556075193754</v>
       </c>
       <c r="D204" t="n">
-        <v>0.5080531136935033</v>
+        <v>0.4367475029527447</v>
       </c>
     </row>
     <row r="205">
@@ -3710,13 +3710,13 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.5467502474784851</v>
+        <v>0.5321112275123596</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.1491853642741066</v>
+        <v>-5.056767456552042</v>
       </c>
       <c r="D205" t="n">
-        <v>0.4430635965155212</v>
+        <v>0.2454632781321316</v>
       </c>
     </row>
     <row r="206">
@@ -3726,13 +3726,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.4544562101364136</v>
+        <v>0.4561171531677246</v>
       </c>
       <c r="C206" t="n">
-        <v>0.4127892925516615</v>
+        <v>4.232364994690344</v>
       </c>
       <c r="D206" t="n">
-        <v>0.7202942444674449</v>
+        <v>0.6885482757090083</v>
       </c>
     </row>
     <row r="207">
@@ -3742,13 +3742,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.7061544060707092</v>
+        <v>0.6764531135559082</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.0002403784105773268</v>
+        <v>-0.1736810726664398</v>
       </c>
       <c r="D207" t="n">
-        <v>0.5165404240532057</v>
+        <v>0.4783830184769101</v>
       </c>
     </row>
     <row r="208">
@@ -3758,13 +3758,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.5664461851119995</v>
+        <v>0.5285143852233887</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.7298520130376154</v>
+        <v>-4.801982249207087</v>
       </c>
       <c r="D208" t="n">
-        <v>0.1566119045654896</v>
+        <v>0.2576163509375436</v>
       </c>
     </row>
     <row r="209">
@@ -3774,13 +3774,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.578733503818512</v>
+        <v>0.5768609046936035</v>
       </c>
       <c r="C209" t="n">
-        <v>0.8145867064489413</v>
+        <v>8.372846713377495</v>
       </c>
       <c r="D209" t="n">
-        <v>0.9185070215868324</v>
+        <v>0.8860463027767815</v>
       </c>
     </row>
     <row r="210">
@@ -3790,13 +3790,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.6045044660568237</v>
+        <v>0.5760594606399536</v>
       </c>
       <c r="C210" t="n">
-        <v>0.1748990215098716</v>
+        <v>-0.2293548187045757</v>
       </c>
       <c r="D210" t="n">
-        <v>0.6029393545603345</v>
+        <v>0.475727420469466</v>
       </c>
     </row>
     <row r="211">
@@ -3806,13 +3806,13 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.5057594776153564</v>
+        <v>0.4830807745456696</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.01677446896277027</v>
+        <v>1.447242935300229</v>
       </c>
       <c r="D211" t="n">
-        <v>0.5083839056383523</v>
+        <v>0.5556999384274007</v>
       </c>
     </row>
     <row r="212">
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.5707718133926392</v>
+        <v>0.5412576794624329</v>
       </c>
       <c r="C212" t="n">
-        <v>0.4807258773012535</v>
+        <v>5.35601311371095</v>
       </c>
       <c r="D212" t="n">
-        <v>0.7538083952943735</v>
+        <v>0.742145490164371</v>
       </c>
     </row>
     <row r="213">
@@ -3838,13 +3838,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.6546231508255005</v>
+        <v>0.6182757616043091</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.08624229600482972</v>
+        <v>-5.321778791778677</v>
       </c>
       <c r="D213" t="n">
-        <v>0.4741143696926182</v>
+        <v>0.2328224263149059</v>
       </c>
     </row>
     <row r="214">
@@ -3854,13 +3854,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.6102017164230347</v>
+        <v>0.5890517234802246</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.06230373797911974</v>
+        <v>-0.1499019255814782</v>
       </c>
       <c r="D214" t="n">
-        <v>0.4859236245618459</v>
+        <v>0.4795172668455089</v>
       </c>
     </row>
     <row r="215">
@@ -3870,13 +3870,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.6126572489738464</v>
+        <v>0.5821247100830078</v>
       </c>
       <c r="C215" t="n">
-        <v>0.1363213587027367</v>
+        <v>2.36119562725429</v>
       </c>
       <c r="D215" t="n">
-        <v>0.5839084065868059</v>
+        <v>0.5992948304612293</v>
       </c>
     </row>
     <row r="216">
@@ -3886,13 +3886,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.6019452810287476</v>
+        <v>0.5634008646011353</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.3768867753341401</v>
+        <v>-5.500561784690567</v>
       </c>
       <c r="D216" t="n">
-        <v>0.3307350262481406</v>
+        <v>0.2242946049713145</v>
       </c>
     </row>
     <row r="217">
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.5972946882247925</v>
+        <v>0.5684226751327515</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.237409661224527</v>
+        <v>-2.621249713208771</v>
       </c>
       <c r="D217" t="n">
-        <v>0.3995412086078207</v>
+        <v>0.3616357387006492</v>
       </c>
     </row>
     <row r="218">
@@ -3918,13 +3918,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.6314605474472046</v>
+        <v>0.5946061611175537</v>
       </c>
       <c r="C218" t="n">
-        <v>0.4162858981774295</v>
+        <v>1.290126850089659</v>
       </c>
       <c r="D218" t="n">
-        <v>0.7220191732191068</v>
+        <v>0.5482056131391976</v>
       </c>
     </row>
     <row r="219">
@@ -3934,13 +3934,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.6492284536361694</v>
+        <v>0.6323237419128418</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.02694155329178153</v>
+        <v>-0.3741764909850918</v>
       </c>
       <c r="D219" t="n">
-        <v>0.503368328259411</v>
+        <v>0.4688195299158213</v>
       </c>
     </row>
     <row r="220">
@@ -3950,13 +3950,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.6245706677436829</v>
+        <v>0.6196117997169495</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.7429417348481558</v>
+        <v>-4.067372274302679</v>
       </c>
       <c r="D220" t="n">
-        <v>0.1501545456526452</v>
+        <v>0.2926567231853239</v>
       </c>
     </row>
     <row r="221">
@@ -3966,13 +3966,13 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.4895086884498596</v>
+        <v>0.4567658305168152</v>
       </c>
       <c r="C221" t="n">
-        <v>0.1878084147889627</v>
+        <v>3.608571333977643</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6093077546651425</v>
+        <v>0.6587937626695919</v>
       </c>
     </row>
     <row r="222">
@@ -3982,13 +3982,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.6511590480804443</v>
+        <v>0.6442804336547852</v>
       </c>
       <c r="C222" t="n">
-        <v>0.05933618150083121</v>
+        <v>-1.002757526247601</v>
       </c>
       <c r="D222" t="n">
-        <v>0.5459304474401625</v>
+        <v>0.4388366625223319</v>
       </c>
     </row>
     <row r="223">
@@ -3998,13 +3998,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.6243528127670288</v>
+        <v>0.5998255014419556</v>
       </c>
       <c r="C223" t="n">
-        <v>0.2218141795448745</v>
+        <v>4.931148342799559</v>
       </c>
       <c r="D223" t="n">
-        <v>0.6260833157743065</v>
+        <v>0.721879743392228</v>
       </c>
     </row>
     <row r="224">
@@ -4014,13 +4014,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.6081154346466064</v>
+        <v>0.574633777141571</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.1243679861315438</v>
+        <v>2.190638990398318</v>
       </c>
       <c r="D224" t="n">
-        <v>0.4553063867185387</v>
+        <v>0.5911594004385966</v>
       </c>
     </row>
     <row r="225">
@@ -4030,13 +4030,13 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.5525029897689819</v>
+        <v>0.5412338972091675</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.2161239941620572</v>
+        <v>-1.47465806978695</v>
       </c>
       <c r="D225" t="n">
-        <v>0.4100417520044723</v>
+        <v>0.4163273429181429</v>
       </c>
     </row>
     <row r="226">
@@ -4046,13 +4046,13 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.4990001916885376</v>
+        <v>0.4920902252197266</v>
       </c>
       <c r="C226" t="n">
-        <v>-1.047320236602434</v>
+        <v>-9.415955597434948</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>0.03753311059728048</v>
       </c>
     </row>
     <row r="227">
@@ -4062,13 +4062,13 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.5243978500366211</v>
+        <v>0.4851574897766113</v>
       </c>
       <c r="C227" t="n">
-        <v>0.1240263980253066</v>
+        <v>2.655779766408384</v>
       </c>
       <c r="D227" t="n">
-        <v>0.5778431154322189</v>
+        <v>0.6133462839493127</v>
       </c>
     </row>
     <row r="228">
@@ -4078,13 +4078,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.5551864504814148</v>
+        <v>0.5544612407684326</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.1214420739747656</v>
+        <v>-0.4800210363995367</v>
       </c>
       <c r="D228" t="n">
-        <v>0.4567497836995622</v>
+        <v>0.4637708205347625</v>
       </c>
     </row>
     <row r="229">
@@ -4094,13 +4094,13 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.6077376008033752</v>
+        <v>0.5901710987091064</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.2026751016728531</v>
+        <v>-2.382271548354402</v>
       </c>
       <c r="D229" t="n">
-        <v>0.4166762952774331</v>
+        <v>0.37303482684491</v>
       </c>
     </row>
     <row r="230">
@@ -4110,13 +4110,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.6517874002456665</v>
+        <v>0.6094723343849182</v>
       </c>
       <c r="C230" t="n">
-        <v>0.2335154535447145</v>
+        <v>2.267302719800259</v>
       </c>
       <c r="D230" t="n">
-        <v>0.6318557322586399</v>
+        <v>0.5948162056929722</v>
       </c>
     </row>
     <row r="231">
@@ -4126,13 +4126,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.5174126625061035</v>
+        <v>0.4732765555381775</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.1463843871836641</v>
+        <v>-0.8944322296521154</v>
       </c>
       <c r="D231" t="n">
-        <v>0.4444453611275909</v>
+        <v>0.4440037019666996</v>
       </c>
     </row>
     <row r="232">
@@ -4142,13 +4142,13 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.6432492136955261</v>
+        <v>0.603614866733551</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.013233720750486</v>
+        <v>-0.6553602292124601</v>
       </c>
       <c r="D232" t="n">
-        <v>0.5101306105995167</v>
+        <v>0.4554072660015021</v>
       </c>
     </row>
     <row r="233">
@@ -4158,13 +4158,13 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.52701735496521</v>
+        <v>0.524871826171875</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.5140638665633467</v>
+        <v>-2.894226998947138</v>
       </c>
       <c r="D233" t="n">
-        <v>0.2630634801673292</v>
+        <v>0.3486149167213319</v>
       </c>
     </row>
     <row r="234">
@@ -4174,13 +4174,13 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.4981399476528168</v>
+        <v>0.5136862993240356</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.9684796459525754</v>
+        <v>-10.20282501876934</v>
       </c>
       <c r="D234" t="n">
-        <v>0.03889326282830796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -4190,13 +4190,13 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.4318162202835083</v>
+        <v>0.414790153503418</v>
       </c>
       <c r="C235" t="n">
-        <v>0.05173792738041952</v>
+        <v>4.023039729072553</v>
       </c>
       <c r="D235" t="n">
-        <v>0.542182113084654</v>
+        <v>0.6785636097247664</v>
       </c>
     </row>
     <row r="236">
@@ -4206,13 +4206,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.5615931153297424</v>
+        <v>0.5506206750869751</v>
       </c>
       <c r="C236" t="n">
-        <v>0.209384554867416</v>
+        <v>0.3711569600469486</v>
       </c>
       <c r="D236" t="n">
-        <v>0.6199515928197616</v>
+        <v>0.5043714043322882</v>
       </c>
     </row>
     <row r="237">
@@ -4222,13 +4222,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.4709517657756805</v>
+        <v>0.4756091237068176</v>
       </c>
       <c r="C237" t="n">
-        <v>0.06735279677693276</v>
+        <v>3.54239908875117</v>
       </c>
       <c r="D237" t="n">
-        <v>0.5498851657186132</v>
+        <v>0.655637393733125</v>
       </c>
     </row>
     <row r="238">
@@ -4238,13 +4238,13 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.5623965263366699</v>
+        <v>0.5327391028404236</v>
       </c>
       <c r="C238" t="n">
-        <v>0.1739682031728266</v>
+        <v>3.80955476129686</v>
       </c>
       <c r="D238" t="n">
-        <v>0.6024801677134364</v>
+        <v>0.6683805289122045</v>
       </c>
     </row>
     <row r="239">
@@ -4254,13 +4254,13 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.5980563759803772</v>
+        <v>0.5671290159225464</v>
       </c>
       <c r="C239" t="n">
-        <v>0.4084993845347428</v>
+        <v>2.083135815428003</v>
       </c>
       <c r="D239" t="n">
-        <v>0.7181779675771274</v>
+        <v>0.5860315756098251</v>
       </c>
     </row>
     <row r="240">
@@ -4270,13 +4270,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.5789833068847656</v>
+        <v>0.5650286078453064</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.4356164836378317</v>
+        <v>-5.372560075919779</v>
       </c>
       <c r="D240" t="n">
-        <v>0.3017627676430558</v>
+        <v>0.2304001952531018</v>
       </c>
     </row>
     <row r="241">
@@ -4286,13 +4286,13 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.6396831870079041</v>
+        <v>0.6234201192855835</v>
       </c>
       <c r="C241" t="n">
-        <v>0.6289639681786904</v>
+        <v>5.189667889139026</v>
       </c>
       <c r="D241" t="n">
-        <v>0.8269365007808978</v>
+        <v>0.7342109415062218</v>
       </c>
     </row>
   </sheetData>

--- a/code/Dataset/PCA_scores.xlsx
+++ b/code/Dataset/PCA_scores.xlsx
@@ -465,10 +465,10 @@
         <v>0.6089487075805664</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5013729547951494</v>
+        <v>0.0356698318465646</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5105826144770806</v>
+        <v>0.5105934008124552</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>0.5515444874763489</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.697882159986497</v>
+        <v>-0.4764305403288219</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1671832763976986</v>
+        <v>0.1671875351525735</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0.5615766048431396</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.090599882738374</v>
+        <v>-0.4332274604214004</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1961502082134869</v>
+        <v>0.1961587912986245</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>0.6439017057418823</v>
       </c>
       <c r="C5" t="n">
-        <v>3.571752237096916</v>
+        <v>0.2540535824960614</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6570375179892829</v>
+        <v>0.6570378578224528</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>0.5931485891342163</v>
       </c>
       <c r="C6" t="n">
-        <v>1.592506668973745</v>
+        <v>0.1132737430758895</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5626289149944352</v>
+        <v>0.5626332737793349</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>0.5917879343032837</v>
       </c>
       <c r="C7" t="n">
-        <v>1.984985039757737</v>
+        <v>0.1411877726891432</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5813498535622282</v>
+        <v>0.5813519508673335</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>0.5318425893783569</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.515498006928449</v>
+        <v>-0.178926443018544</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3666800197211766</v>
+        <v>0.3666887611333425</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>0.6283011436462402</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.667136823820559</v>
+        <v>-0.189715630446347</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3594469562281252</v>
+        <v>0.3594537141587184</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>0.6085882782936096</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4240423658696761</v>
+        <v>-0.0301576633364106</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4664409632231428</v>
+        <v>0.4664505936680206</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>0.6081981062889099</v>
       </c>
       <c r="C11" t="n">
-        <v>2.177584138521214</v>
+        <v>0.1548987906073508</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5905366933082273</v>
+        <v>0.5905463280502262</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>0.5083140730857849</v>
       </c>
       <c r="C12" t="n">
-        <v>1.797421607196363</v>
+        <v>0.1278471378471681</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5724032115051595</v>
+        <v>0.5724059463235371</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>0.5642143487930298</v>
       </c>
       <c r="C13" t="n">
-        <v>2.296792467614198</v>
+        <v>0.1633694627771819</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5962228456464087</v>
+        <v>0.5962266178278827</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>0.4854750633239746</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.158441900599327</v>
+        <v>-0.2958049053100419</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2883127669161267</v>
+        <v>0.2883120371530258</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>0.5543668270111084</v>
       </c>
       <c r="C15" t="n">
-        <v>1.050553562360093</v>
+        <v>0.07472524321893717</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5367781380579331</v>
+        <v>0.5367833004488473</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>0.5246469378471375</v>
       </c>
       <c r="C16" t="n">
-        <v>3.11420196609218</v>
+        <v>0.2215072281829954</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6352126961575824</v>
+        <v>0.6352128219813857</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>0.5465770959854126</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.15539318806101</v>
+        <v>-0.295581243626388</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2884581883313927</v>
+        <v>0.2884620209028206</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>0.6401391625404358</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.892496540082634</v>
+        <v>-0.2057528697247824</v>
       </c>
       <c r="D18" t="n">
-        <v>0.348697458375874</v>
+        <v>0.3486994121967593</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>0.5168957710266113</v>
       </c>
       <c r="C19" t="n">
-        <v>3.676968974999719</v>
+        <v>0.2615532586191108</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6620562813994736</v>
+        <v>0.6620670140409188</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>0.507938027381897</v>
       </c>
       <c r="C20" t="n">
-        <v>5.180159629035429</v>
+        <v>0.3684667084765857</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7337574042757995</v>
+        <v>0.7337613688859027</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>0.4684543311595917</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.09822582692311477</v>
+        <v>-0.006986947757916164</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4819821799220537</v>
+        <v>0.4819884844283629</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>0.598842978477478</v>
       </c>
       <c r="C22" t="n">
-        <v>6.536481181705451</v>
+        <v>0.4649516433174558</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7984529756903168</v>
+        <v>0.7984625375872966</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>0.6244564056396484</v>
       </c>
       <c r="C23" t="n">
-        <v>3.678066538837353</v>
+        <v>0.261628568637938</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6621086344122971</v>
+        <v>0.6621175156683602</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>0.5607739090919495</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8247506518462429</v>
+        <v>0.05867250369595273</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5260075001557358</v>
+        <v>0.5260186042845276</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>0.6487879753112793</v>
       </c>
       <c r="C25" t="n">
-        <v>-3.118054619094789</v>
+        <v>-0.221785703176281</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3379384987618167</v>
+        <v>0.3379480647079764</v>
       </c>
     </row>
     <row r="26">
@@ -849,10 +849,10 @@
         <v>0.4638515710830688</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.6091930294073237</v>
+        <v>-0.04332368964437239</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4576094085289298</v>
+        <v>0.4576216786598551</v>
       </c>
     </row>
     <row r="27">
@@ -865,10 +865,10 @@
         <v>0.622394323348999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9702708053781492</v>
+        <v>0.06902171292452214</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5329487077672656</v>
+        <v>0.5329586093052913</v>
       </c>
     </row>
     <row r="28">
@@ -881,10 +881,10 @@
         <v>0.6162061095237732</v>
       </c>
       <c r="C28" t="n">
-        <v>-2.223931423038197</v>
+        <v>-0.1581873473182567</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3805875379737808</v>
+        <v>0.3805960486475197</v>
       </c>
     </row>
     <row r="29">
@@ -897,10 +897,10 @@
         <v>0.5663346648216248</v>
       </c>
       <c r="C29" t="n">
-        <v>1.125469603865487</v>
+        <v>0.08005543703231457</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5403515798452172</v>
+        <v>0.5403576384498963</v>
       </c>
     </row>
     <row r="30">
@@ -913,10 +913,10 @@
         <v>0.5584570169448853</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9241720929494897</v>
+        <v>0.06574177340147766</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5307498320388849</v>
+        <v>0.5307591372243817</v>
       </c>
     </row>
     <row r="31">
@@ -929,10 +929,10 @@
         <v>0.5868507623672485</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.5246046559688632</v>
+        <v>-0.03731917472328442</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4616442136559682</v>
+        <v>0.4616482050136335</v>
       </c>
     </row>
     <row r="32">
@@ -945,10 +945,10 @@
         <v>0.5282207727432251</v>
       </c>
       <c r="C32" t="n">
-        <v>-4.867113246075847</v>
+        <v>-0.3462088157187691</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2545096488056438</v>
+        <v>0.2545120256181309</v>
       </c>
     </row>
     <row r="33">
@@ -961,10 +961,10 @@
         <v>0.4799972176551819</v>
       </c>
       <c r="C33" t="n">
-        <v>7.109987010972932</v>
+        <v>0.5057309623335592</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8258087950098401</v>
+        <v>0.8258084605911358</v>
       </c>
     </row>
     <row r="34">
@@ -977,10 +977,10 @@
         <v>0.5446202754974365</v>
       </c>
       <c r="C34" t="n">
-        <v>3.592026538009274</v>
+        <v>0.2554982594757496</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6580045876933459</v>
+        <v>0.6580066338198248</v>
       </c>
     </row>
     <row r="35">
@@ -993,10 +993,10 @@
         <v>0.5794036388397217</v>
       </c>
       <c r="C35" t="n">
-        <v>4.996730343175308</v>
+        <v>0.3554208348377064</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7250079580699819</v>
+        <v>0.7250130262295251</v>
       </c>
     </row>
     <row r="36">
@@ -1009,10 +1009,10 @@
         <v>0.5507793426513672</v>
       </c>
       <c r="C36" t="n">
-        <v>-4.97714756976058</v>
+        <v>-0.3540336064091086</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2492610899871395</v>
+        <v>0.2492648530585625</v>
       </c>
     </row>
     <row r="37">
@@ -1025,10 +1025,10 @@
         <v>0.6220468282699585</v>
       </c>
       <c r="C37" t="n">
-        <v>3.038137213846947</v>
+        <v>0.2160982338804118</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6315844616866919</v>
+        <v>0.631585641702376</v>
       </c>
     </row>
     <row r="38">
@@ -1041,10 +1041,10 @@
         <v>0.5685303211212158</v>
       </c>
       <c r="C38" t="n">
-        <v>0.9346638214453556</v>
+        <v>0.0664948928036919</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5312502800107024</v>
+        <v>0.5312641663833413</v>
       </c>
     </row>
     <row r="39">
@@ -1057,10 +1057,10 @@
         <v>0.6010332107543945</v>
       </c>
       <c r="C39" t="n">
-        <v>1.276075827138035</v>
+        <v>0.09076928484603364</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5475353893585431</v>
+        <v>0.5475421639509993</v>
       </c>
     </row>
     <row r="40">
@@ -1073,10 +1073,10 @@
         <v>0.5078012943267822</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.9861148376280036</v>
+        <v>-0.07013776844865996</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4396305069082735</v>
+        <v>0.4396406100178956</v>
       </c>
     </row>
     <row r="41">
@@ -1089,10 +1089,10 @@
         <v>0.6428162455558777</v>
       </c>
       <c r="C41" t="n">
-        <v>2.578770491152127</v>
+        <v>0.1834280182128358</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6096729964039561</v>
+        <v>0.6096775465276735</v>
       </c>
     </row>
     <row r="42">
@@ -1105,10 +1105,10 @@
         <v>0.5420522093772888</v>
       </c>
       <c r="C42" t="n">
-        <v>-2.211039908491671</v>
+        <v>-0.1572651244103805</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3812024540298917</v>
+        <v>0.3812144757630191</v>
       </c>
     </row>
     <row r="43">
@@ -1121,10 +1121,10 @@
         <v>0.5472961664199829</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.917714612924895</v>
+        <v>-0.136407358795851</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3951938615760354</v>
+        <v>0.3952013413186164</v>
       </c>
     </row>
     <row r="44">
@@ -1137,10 +1137,10 @@
         <v>0.6705746054649353</v>
       </c>
       <c r="C44" t="n">
-        <v>2.805642781079066</v>
+        <v>0.199569501476358</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6204946429420128</v>
+        <v>0.6205017527464611</v>
       </c>
     </row>
     <row r="45">
@@ -1153,10 +1153,10 @@
         <v>0.5625742077827454</v>
       </c>
       <c r="C45" t="n">
-        <v>-3.464775500450316</v>
+        <v>-0.2464529751799683</v>
       </c>
       <c r="D45" t="n">
-        <v>0.321400159828484</v>
+        <v>0.3214066084697981</v>
       </c>
     </row>
     <row r="46">
@@ -1169,10 +1169,10 @@
         <v>0.4994285702705383</v>
       </c>
       <c r="C46" t="n">
-        <v>-8.86820079753624</v>
+        <v>-0.6308114117693138</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06366062416862389</v>
+        <v>0.06366232861319593</v>
       </c>
     </row>
     <row r="47">
@@ -1185,10 +1185,10 @@
         <v>0.6017799377441406</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.009863811871618</v>
+        <v>-0.07182264517428302</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4384976977627029</v>
+        <v>0.4385107601253151</v>
       </c>
     </row>
     <row r="48">
@@ -1201,10 +1201,10 @@
         <v>0.4961274862289429</v>
       </c>
       <c r="C48" t="n">
-        <v>1.055251722073965</v>
+        <v>0.0750562176320347</v>
       </c>
       <c r="D48" t="n">
-        <v>0.537002236927915</v>
+        <v>0.5370052463036379</v>
       </c>
     </row>
     <row r="49">
@@ -1217,10 +1217,10 @@
         <v>0.5696621537208557</v>
       </c>
       <c r="C49" t="n">
-        <v>-2.261979828345165</v>
+        <v>-0.1608998118599695</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3787726561576659</v>
+        <v>0.3787771157104829</v>
       </c>
     </row>
     <row r="50">
@@ -1233,10 +1233,10 @@
         <v>0.4826945066452026</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.757267404586957</v>
+        <v>-0.1250009616363217</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4028470790633287</v>
+        <v>0.4028502787212376</v>
       </c>
     </row>
     <row r="51">
@@ -1249,10 +1249,10 @@
         <v>0.5557889938354492</v>
       </c>
       <c r="C51" t="n">
-        <v>1.943261391551656</v>
+        <v>0.1382192427494651</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5793596652791645</v>
+        <v>0.5793613047966384</v>
       </c>
     </row>
     <row r="52">
@@ -1265,10 +1265,10 @@
         <v>0.4821966886520386</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2817672122361796</v>
+        <v>0.02004493044777453</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5001075770696212</v>
+        <v>0.5001156056725913</v>
       </c>
     </row>
     <row r="53">
@@ -1281,10 +1281,10 @@
         <v>0.5590968132019043</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.2155253117460388</v>
+        <v>-0.01532886452556458</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4763870780951244</v>
+        <v>0.4763945358501027</v>
       </c>
     </row>
     <row r="54">
@@ -1297,10 +1297,10 @@
         <v>0.5857820510864258</v>
       </c>
       <c r="C54" t="n">
-        <v>1.375137313962847</v>
+        <v>0.09781617601968236</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5522605516791496</v>
+        <v>0.5522676902251122</v>
       </c>
     </row>
     <row r="55">
@@ -1313,10 +1313,10 @@
         <v>0.5934573411941528</v>
       </c>
       <c r="C55" t="n">
-        <v>1.463717931161672</v>
+        <v>0.1041114810062641</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5564857839882927</v>
+        <v>0.5564892154884638</v>
       </c>
     </row>
     <row r="56">
@@ -1329,10 +1329,10 @@
         <v>0.541027843952179</v>
       </c>
       <c r="C56" t="n">
-        <v>-4.082664528284634</v>
+        <v>-0.2904037580210994</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2919272935691455</v>
+        <v>0.2919339553571403</v>
       </c>
     </row>
     <row r="57">
@@ -1345,10 +1345,10 @@
         <v>0.5746532678604126</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.718401820710324</v>
+        <v>-0.1222262201954526</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4047009397148149</v>
+        <v>0.4047109734956552</v>
       </c>
     </row>
     <row r="58">
@@ -1361,10 +1361,10 @@
         <v>0.513573944568634</v>
       </c>
       <c r="C58" t="n">
-        <v>-6.413890821977692</v>
+        <v>-0.4562355253604641</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1807294608206214</v>
+        <v>0.1807299713116475</v>
       </c>
     </row>
     <row r="59">
@@ -1377,10 +1377,10 @@
         <v>0.4747325479984283</v>
       </c>
       <c r="C59" t="n">
-        <v>-6.600085262410972</v>
+        <v>-0.4694726917487032</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1718481187123845</v>
+        <v>0.1718533509664463</v>
       </c>
     </row>
     <row r="60">
@@ -1393,10 +1393,10 @@
         <v>0.5255399942398071</v>
       </c>
       <c r="C60" t="n">
-        <v>-9.808063809123135</v>
+        <v>-0.6976581124979255</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01882982835454561</v>
+        <v>0.01883605943338357</v>
       </c>
     </row>
     <row r="61">
@@ -1409,10 +1409,10 @@
         <v>0.6059603691101074</v>
       </c>
       <c r="C61" t="n">
-        <v>4.017769053834714</v>
+        <v>0.2857831548125675</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6783122022723218</v>
+        <v>0.6783151734433754</v>
       </c>
     </row>
     <row r="62">
@@ -1425,10 +1425,10 @@
         <v>0.6339240074157715</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.6821730997939914</v>
+        <v>-0.04851767520171799</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4541283111842458</v>
+        <v>0.4541386796161944</v>
       </c>
     </row>
     <row r="63">
@@ -1441,10 +1441,10 @@
         <v>0.6434110403060913</v>
       </c>
       <c r="C63" t="n">
-        <v>10.20803980568737</v>
+        <v>0.7261049943290689</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9735837053412657</v>
+        <v>0.9735875666771161</v>
       </c>
     </row>
     <row r="64">
@@ -1457,10 +1457,10 @@
         <v>0.6086956262588501</v>
       </c>
       <c r="C64" t="n">
-        <v>-5.099231764225906</v>
+        <v>-0.362717031209266</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2434377609203213</v>
+        <v>0.2434418949581351</v>
       </c>
     </row>
     <row r="65">
@@ -1473,10 +1473,10 @@
         <v>0.646146297454834</v>
       </c>
       <c r="C65" t="n">
-        <v>4.599390743307221</v>
+        <v>0.3271596543424176</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7060551423394663</v>
+        <v>0.7060615556197147</v>
       </c>
     </row>
     <row r="66">
@@ -1489,10 +1489,10 @@
         <v>0.4781573414802551</v>
       </c>
       <c r="C66" t="n">
-        <v>-6.125460915734796</v>
+        <v>-0.4357148543717274</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1944873617849509</v>
+        <v>0.1944907869011259</v>
       </c>
     </row>
     <row r="67">
@@ -1505,10 +1505,10 @@
         <v>0.4468657374382019</v>
       </c>
       <c r="C67" t="n">
-        <v>0.7472048671554845</v>
+        <v>0.05315223739559375</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5223086214927228</v>
+        <v>0.5223168068820087</v>
       </c>
     </row>
     <row r="68">
@@ -1521,10 +1521,10 @@
         <v>0.5989409685134888</v>
       </c>
       <c r="C68" t="n">
-        <v>2.559839181589251</v>
+        <v>0.1820893184433849</v>
       </c>
       <c r="D68" t="n">
-        <v>0.608769986430116</v>
+        <v>0.6087798370586603</v>
       </c>
     </row>
     <row r="69">
@@ -1537,10 +1537,10 @@
         <v>0.6871676445007324</v>
       </c>
       <c r="C69" t="n">
-        <v>-2.428378006400741</v>
+        <v>-0.1727375053529105</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3708355816560863</v>
+        <v>0.3708389582666772</v>
       </c>
     </row>
     <row r="70">
@@ -1553,10 +1553,10 @@
         <v>0.5615541934967041</v>
       </c>
       <c r="C70" t="n">
-        <v>-3.436729179076269</v>
+        <v>-0.2444647276300358</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3227379493694651</v>
+        <v>0.3227398937164584</v>
       </c>
     </row>
     <row r="71">
@@ -1569,10 +1569,10 @@
         <v>0.5924681425094604</v>
       </c>
       <c r="C71" t="n">
-        <v>2.058475161545996</v>
+        <v>0.1464181283850549</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5848552799952553</v>
+        <v>0.5848593391120124</v>
       </c>
     </row>
     <row r="72">
@@ -1585,10 +1585,10 @@
         <v>0.5930689573287964</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.5435121526053972</v>
+        <v>-0.03866651347125862</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4607423395417432</v>
+        <v>0.4607447023914429</v>
       </c>
     </row>
     <row r="73">
@@ -1601,10 +1601,10 @@
         <v>0.6199178695678711</v>
       </c>
       <c r="C73" t="n">
-        <v>-2.177245818372203</v>
+        <v>-0.1548611194971112</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3828144080436052</v>
+        <v>0.3828265608798195</v>
       </c>
     </row>
     <row r="74">
@@ -1617,10 +1617,10 @@
         <v>0.6532189249992371</v>
       </c>
       <c r="C74" t="n">
-        <v>0.475815516370355</v>
+        <v>0.03384498743478773</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5093635428789567</v>
+        <v>0.5093696909521035</v>
       </c>
     </row>
     <row r="75">
@@ -1633,10 +1633,10 @@
         <v>0.6401420831680298</v>
       </c>
       <c r="C75" t="n">
-        <v>-1.370132266935366</v>
+        <v>-0.09745692858900906</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4213131492188185</v>
+        <v>0.4213208423574173</v>
       </c>
     </row>
     <row r="76">
@@ -1649,10 +1649,10 @@
         <v>0.5361326932907104</v>
       </c>
       <c r="C76" t="n">
-        <v>-3.796539817017069</v>
+        <v>-0.2700525629817772</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3055752383760599</v>
+        <v>0.3055811232355851</v>
       </c>
     </row>
     <row r="77">
@@ -1665,10 +1665,10 @@
         <v>0.4516919255256653</v>
       </c>
       <c r="C77" t="n">
-        <v>1.033850483555526</v>
+        <v>0.07352525498943197</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5359814131032083</v>
+        <v>0.5359786085971613</v>
       </c>
     </row>
     <row r="78">
@@ -1681,10 +1681,10 @@
         <v>0.6534938812255859</v>
       </c>
       <c r="C78" t="n">
-        <v>8.165455367400112</v>
+        <v>0.5808118811259055</v>
       </c>
       <c r="D78" t="n">
-        <v>0.876153883381086</v>
+        <v>0.8761564574162476</v>
       </c>
     </row>
     <row r="79">
@@ -1697,10 +1697,10 @@
         <v>0.6266897916793823</v>
       </c>
       <c r="C79" t="n">
-        <v>6.126450105084595</v>
+        <v>0.4357782868113158</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7788947855638861</v>
+        <v>0.7788993771415467</v>
       </c>
     </row>
     <row r="80">
@@ -1713,10 +1713,10 @@
         <v>0.5649580359458923</v>
       </c>
       <c r="C80" t="n">
-        <v>9.170480967220433</v>
+        <v>0.6523107237663547</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9240928882126436</v>
+        <v>0.9241023744370109</v>
       </c>
     </row>
     <row r="81">
@@ -1729,10 +1729,10 @@
         <v>0.5341765284538269</v>
       </c>
       <c r="C81" t="n">
-        <v>-4.432138496467944</v>
+        <v>-0.3152632123310473</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2752576343562474</v>
+        <v>0.2752636249082959</v>
       </c>
     </row>
     <row r="82">
@@ -1745,10 +1745,10 @@
         <v>0.5920878052711487</v>
       </c>
       <c r="C82" t="n">
-        <v>3.170496955730338</v>
+        <v>0.225514822826402</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6378979270419883</v>
+        <v>0.6379002473036653</v>
       </c>
     </row>
     <row r="83">
@@ -1761,10 +1761,10 @@
         <v>0.5570347309112549</v>
       </c>
       <c r="C83" t="n">
-        <v>3.539409853461192</v>
+        <v>0.2517661605123513</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6554948093402154</v>
+        <v>0.6555039512503711</v>
       </c>
     </row>
     <row r="84">
@@ -1777,10 +1777,10 @@
         <v>0.6226181387901306</v>
       </c>
       <c r="C84" t="n">
-        <v>-3.34899212683784</v>
+        <v>-0.2382188290316302</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3269229442312045</v>
+        <v>0.3269282878898466</v>
       </c>
     </row>
     <row r="85">
@@ -1793,10 +1793,10 @@
         <v>0.6185123920440674</v>
       </c>
       <c r="C85" t="n">
-        <v>1.257403077642167</v>
+        <v>0.0894349792275265</v>
       </c>
       <c r="D85" t="n">
-        <v>0.546644712515624</v>
+        <v>0.5466474011254387</v>
       </c>
     </row>
     <row r="86">
@@ -1809,10 +1809,10 @@
         <v>0.4914084672927856</v>
       </c>
       <c r="C86" t="n">
-        <v>-2.468223689396497</v>
+        <v>-0.1755663323419742</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3689349709751328</v>
+        <v>0.3689419946365692</v>
       </c>
     </row>
     <row r="87">
@@ -1825,10 +1825,10 @@
         <v>0.6249130964279175</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.7982376943105457</v>
+        <v>-0.05677491860799388</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4485921127448264</v>
+        <v>0.4486015115648394</v>
       </c>
     </row>
     <row r="88">
@@ -1841,10 +1841,10 @@
         <v>0.5316505432128906</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4109924722734536</v>
+        <v>0.02923759462755398</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5062715298747972</v>
+        <v>0.5062800511053639</v>
       </c>
     </row>
     <row r="89">
@@ -1857,10 +1857,10 @@
         <v>0.643172562122345</v>
       </c>
       <c r="C89" t="n">
-        <v>-4.614458231539799</v>
+        <v>-0.3282336836565405</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2665611129322554</v>
+        <v>0.266565845770533</v>
       </c>
     </row>
     <row r="90">
@@ -1873,10 +1873,10 @@
         <v>0.5227036476135254</v>
       </c>
       <c r="C90" t="n">
-        <v>-5.146414641289147</v>
+        <v>-0.3660695687187027</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2411871713115532</v>
+        <v>0.2411937398929578</v>
       </c>
     </row>
     <row r="91">
@@ -1889,10 +1889,10 @@
         <v>0.4388120174407959</v>
       </c>
       <c r="C91" t="n">
-        <v>-2.815189171357755</v>
+        <v>-0.2002420282317412</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3523849647672331</v>
+        <v>0.3523948894825755</v>
       </c>
     </row>
     <row r="92">
@@ -1905,10 +1905,10 @@
         <v>0.5652368068695068</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4698675085636457</v>
+        <v>0.03342619531880822</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5090798271457108</v>
+        <v>0.5090888560280659</v>
       </c>
     </row>
     <row r="93">
@@ -1921,10 +1921,10 @@
         <v>0.6184109449386597</v>
       </c>
       <c r="C93" t="n">
-        <v>-3.021996130894251</v>
+        <v>-0.2149566371022937</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3425204201882768</v>
+        <v>0.3425275211470023</v>
       </c>
     </row>
     <row r="94">
@@ -1937,10 +1937,10 @@
         <v>0.549363911151886</v>
       </c>
       <c r="C94" t="n">
-        <v>2.04670224579382</v>
+        <v>0.1455866387910062</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5842937203044116</v>
+        <v>0.5843017562252465</v>
       </c>
     </row>
     <row r="95">
@@ -1953,10 +1953,10 @@
         <v>0.5495946407318115</v>
       </c>
       <c r="C95" t="n">
-        <v>-5.665031109666629</v>
+        <v>-0.4029700017739985</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2164495353869377</v>
+        <v>0.2164489323413661</v>
       </c>
     </row>
     <row r="96">
@@ -1969,10 +1969,10 @@
         <v>0.5374869108200073</v>
       </c>
       <c r="C96" t="n">
-        <v>-2.946469578194654</v>
+        <v>-0.2095796793608431</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3461229829244143</v>
+        <v>0.3461332182488726</v>
       </c>
     </row>
     <row r="97">
@@ -1985,10 +1985,10 @@
         <v>0.517577052116394</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.718997094388399</v>
+        <v>-0.1222707366428633</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4046725455846212</v>
+        <v>0.4046811215174302</v>
       </c>
     </row>
     <row r="98">
@@ -2001,10 +2001,10 @@
         <v>0.5218163728713989</v>
       </c>
       <c r="C98" t="n">
-        <v>1.865728713376931</v>
+        <v>0.1327195326691153</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5756614117876253</v>
+        <v>0.575673292048282</v>
       </c>
     </row>
     <row r="99">
@@ -2017,10 +2017,10 @@
         <v>0.4687840342521667</v>
       </c>
       <c r="C99" t="n">
-        <v>1.022797107341454</v>
+        <v>0.07274501464757069</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5354541749355176</v>
+        <v>0.5354553925938582</v>
       </c>
     </row>
     <row r="100">
@@ -2033,10 +2033,10 @@
         <v>0.5169509649276733</v>
       </c>
       <c r="C100" t="n">
-        <v>4.307263364047276</v>
+        <v>0.3063795066799009</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6921208745474057</v>
+        <v>0.6921267393525968</v>
       </c>
     </row>
     <row r="101">
@@ -2049,10 +2049,10 @@
         <v>0.611096978187561</v>
       </c>
       <c r="C101" t="n">
-        <v>0.600827331679922</v>
+        <v>0.04272199584358691</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5153265173735353</v>
+        <v>0.5153224629529207</v>
       </c>
     </row>
     <row r="102">
@@ -2065,10 +2065,10 @@
         <v>0.5822498798370361</v>
       </c>
       <c r="C102" t="n">
-        <v>1.647929835450416</v>
+        <v>0.1172181764190137</v>
       </c>
       <c r="D102" t="n">
-        <v>0.565272560535385</v>
+        <v>0.5652783441997669</v>
       </c>
     </row>
     <row r="103">
@@ -2081,10 +2081,10 @@
         <v>0.6003119349479675</v>
       </c>
       <c r="C103" t="n">
-        <v>3.932617476550915</v>
+        <v>0.2797314535964583</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6742505327232551</v>
+        <v>0.6742570047566299</v>
       </c>
     </row>
     <row r="104">
@@ -2097,10 +2097,10 @@
         <v>0.5920939445495605</v>
       </c>
       <c r="C104" t="n">
-        <v>-2.222055263583976</v>
+        <v>-0.158055647671691</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3806770294426117</v>
+        <v>0.3806843642075024</v>
       </c>
     </row>
     <row r="105">
@@ -2113,10 +2113,10 @@
         <v>0.4917824268341064</v>
       </c>
       <c r="C105" t="n">
-        <v>6.30877424769743</v>
+        <v>0.4487403899211039</v>
       </c>
       <c r="D105" t="n">
-        <v>0.7875915172244417</v>
+        <v>0.7875915446951077</v>
       </c>
     </row>
     <row r="106">
@@ -2129,10 +2129,10 @@
         <v>0.5428372621536255</v>
       </c>
       <c r="C106" t="n">
-        <v>1.49683176052678</v>
+        <v>0.1064779475015693</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5580652900488439</v>
+        <v>0.5580761279758014</v>
       </c>
     </row>
     <row r="107">
@@ -2145,10 +2145,10 @@
         <v>0.5823487043380737</v>
       </c>
       <c r="C107" t="n">
-        <v>3.734814435544779</v>
+        <v>0.26566860952201</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6648154686411211</v>
+        <v>0.6648266988919586</v>
       </c>
     </row>
     <row r="108">
@@ -2161,10 +2161,10 @@
         <v>0.634444534778595</v>
       </c>
       <c r="C108" t="n">
-        <v>4.413634604617129</v>
+        <v>0.3139433076658388</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6971947069120028</v>
+        <v>0.6971988966217297</v>
       </c>
     </row>
     <row r="109">
@@ -2177,10 +2177,10 @@
         <v>0.62579345703125</v>
       </c>
       <c r="C109" t="n">
-        <v>1.425910528250185</v>
+        <v>0.1014381177851779</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5546823978146804</v>
+        <v>0.5546965032370342</v>
       </c>
     </row>
     <row r="110">
@@ -2193,10 +2193,10 @@
         <v>0.6302820444107056</v>
       </c>
       <c r="C110" t="n">
-        <v>5.185782488712688</v>
+        <v>0.3688760832958552</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7340256106750032</v>
+        <v>0.7340358887297244</v>
       </c>
     </row>
     <row r="111">
@@ -2209,10 +2209,10 @@
         <v>0.5177156925201416</v>
       </c>
       <c r="C111" t="n">
-        <v>-4.84309918317602</v>
+        <v>-0.3444994198589539</v>
       </c>
       <c r="D111" t="n">
-        <v>0.2556551024911877</v>
+        <v>0.2556583176282335</v>
       </c>
     </row>
     <row r="112">
@@ -2225,10 +2225,10 @@
         <v>0.5183564424514771</v>
       </c>
       <c r="C112" t="n">
-        <v>-6.920319032464281</v>
+        <v>-0.4922526541440039</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1565731961108527</v>
+        <v>0.1565774926950943</v>
       </c>
     </row>
     <row r="113">
@@ -2241,10 +2241,10 @@
         <v>0.4861728250980377</v>
       </c>
       <c r="C113" t="n">
-        <v>1.550024686697159</v>
+        <v>0.1102574118213324</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5606025547166716</v>
+        <v>0.560610572953737</v>
       </c>
     </row>
     <row r="114">
@@ -2257,10 +2257,10 @@
         <v>0.5920306444168091</v>
       </c>
       <c r="C114" t="n">
-        <v>-2.197379590963713</v>
+        <v>-0.1563083318107532</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3818540414402924</v>
+        <v>0.381856084730293</v>
       </c>
     </row>
     <row r="115">
@@ -2273,10 +2273,10 @@
         <v>0.6273502111434937</v>
       </c>
       <c r="C115" t="n">
-        <v>4.412775416343813</v>
+        <v>0.313886257163613</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6971537242437076</v>
+        <v>0.6971606395179125</v>
       </c>
     </row>
     <row r="116">
@@ -2289,10 +2289,10 @@
         <v>0.4919197261333466</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2653878681247253</v>
+        <v>0.01887979069768834</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4993262940290328</v>
+        <v>0.499334282622984</v>
       </c>
     </row>
     <row r="117">
@@ -2305,10 +2305,10 @@
         <v>0.4465136528015137</v>
       </c>
       <c r="C117" t="n">
-        <v>-4.801837292825728</v>
+        <v>-0.3415520208802137</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2576232652536243</v>
+        <v>0.2576347936332005</v>
       </c>
     </row>
     <row r="118">
@@ -2321,10 +2321,10 @@
         <v>0.3993527889251709</v>
       </c>
       <c r="C118" t="n">
-        <v>-7.592561211645401</v>
+        <v>-0.5400778246205574</v>
       </c>
       <c r="D118" t="n">
-        <v>0.1245077232696615</v>
+        <v>0.1245067406312635</v>
       </c>
     </row>
     <row r="119">
@@ -2337,10 +2337,10 @@
         <v>0.4455098509788513</v>
       </c>
       <c r="C119" t="n">
-        <v>4.339824179191722</v>
+        <v>0.3087053750649013</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6936740022237635</v>
+        <v>0.6936864274324337</v>
       </c>
     </row>
     <row r="120">
@@ -2353,10 +2353,10 @@
         <v>0.6051150560379028</v>
       </c>
       <c r="C120" t="n">
-        <v>-2.056691358598306</v>
+        <v>-0.1462977135014719</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3885647698558813</v>
+        <v>0.3885690363957763</v>
       </c>
     </row>
     <row r="121">
@@ -2369,10 +2369,10 @@
         <v>0.6307796835899353</v>
       </c>
       <c r="C121" t="n">
-        <v>-4.673511357239036</v>
+        <v>-0.3324261795194853</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2637443209234543</v>
+        <v>0.2637544288114433</v>
       </c>
     </row>
     <row r="122">
@@ -2385,10 +2385,10 @@
         <v>0.5610477924346924</v>
       </c>
       <c r="C122" t="n">
-        <v>3.349587620728481</v>
+        <v>0.238257915598606</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6464404241248166</v>
+        <v>0.6464455502215944</v>
       </c>
     </row>
     <row r="123">
@@ -2401,10 +2401,10 @@
         <v>0.571408212184906</v>
       </c>
       <c r="C123" t="n">
-        <v>-1.962828815270699</v>
+        <v>-0.1396248066507589</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3930419462769485</v>
+        <v>0.3930437750955406</v>
       </c>
     </row>
     <row r="124">
@@ -2417,10 +2417,10 @@
         <v>0.611966609954834</v>
       </c>
       <c r="C124" t="n">
-        <v>-5.488448915175907</v>
+        <v>-0.3904046815556951</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2248723802143443</v>
+        <v>0.2248750239853345</v>
       </c>
     </row>
     <row r="125">
@@ -2433,10 +2433,10 @@
         <v>0.6334807872772217</v>
       </c>
       <c r="C125" t="n">
-        <v>-1.727918697179251</v>
+        <v>-0.1229073760524973</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4042469914899072</v>
+        <v>0.4042542018753884</v>
       </c>
     </row>
     <row r="126">
@@ -2449,10 +2449,10 @@
         <v>0.5023958683013916</v>
       </c>
       <c r="C126" t="n">
-        <v>0.4497594106585239</v>
+        <v>0.03199958409684626</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5081206852066403</v>
+        <v>0.5081321946228869</v>
       </c>
     </row>
     <row r="127">
@@ -2465,10 +2465,10 @@
         <v>0.5384917259216309</v>
       </c>
       <c r="C127" t="n">
-        <v>1.848145451580926</v>
+        <v>0.1314663470156449</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5748227027315138</v>
+        <v>0.5748329269020228</v>
       </c>
     </row>
     <row r="128">
@@ -2481,10 +2481,10 @@
         <v>0.5853080749511719</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.7133569840951213</v>
+        <v>-0.05074093426952499</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4526408621277782</v>
+        <v>0.4526477996124888</v>
       </c>
     </row>
     <row r="129">
@@ -2497,10 +2497,10 @@
         <v>0.4788523614406586</v>
       </c>
       <c r="C129" t="n">
-        <v>6.670897879852646</v>
+        <v>0.4745071482656444</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8048645563934078</v>
+        <v>0.8048702979148485</v>
       </c>
     </row>
     <row r="130">
@@ -2513,10 +2513,10 @@
         <v>0.5522424578666687</v>
       </c>
       <c r="C130" t="n">
-        <v>-3.202912470012149</v>
+        <v>-0.2278218036110031</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3338908397510908</v>
+        <v>0.333900357641898</v>
       </c>
     </row>
     <row r="131">
@@ -2529,7 +2529,7 @@
         <v>0.6165109872817993</v>
       </c>
       <c r="C131" t="n">
-        <v>10.76184880689024</v>
+        <v>0.7654922567123584</v>
       </c>
       <c r="D131" t="n">
         <v>1</v>
@@ -2545,10 +2545,10 @@
         <v>0.5527165532112122</v>
       </c>
       <c r="C132" t="n">
-        <v>-2.159238350330802</v>
+        <v>-0.1536007290658561</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3836733514352911</v>
+        <v>0.3836717574284492</v>
       </c>
     </row>
     <row r="133">
@@ -2561,10 +2561,10 @@
         <v>0.6206855773925781</v>
       </c>
       <c r="C133" t="n">
-        <v>1.548105995126174</v>
+        <v>0.1101240534910171</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5605110344961836</v>
+        <v>0.5605211451084294</v>
       </c>
     </row>
     <row r="134">
@@ -2577,10 +2577,10 @@
         <v>0.6322867870330811</v>
       </c>
       <c r="C134" t="n">
-        <v>5.54010353310223</v>
+        <v>0.3940756959035701</v>
       </c>
       <c r="D134" t="n">
-        <v>0.7509264719684363</v>
+        <v>0.7509343235914008</v>
       </c>
     </row>
     <row r="135">
@@ -2593,10 +2593,10 @@
         <v>0.6279170513153076</v>
       </c>
       <c r="C135" t="n">
-        <v>-2.862612824082702</v>
+        <v>-0.2036160981157543</v>
       </c>
       <c r="D135" t="n">
-        <v>0.350122890331002</v>
+        <v>0.3501322951704596</v>
       </c>
     </row>
     <row r="136">
@@ -2609,10 +2609,10 @@
         <v>0.5792423486709595</v>
       </c>
       <c r="C136" t="n">
-        <v>-5.134189527598466</v>
+        <v>-0.3651983464331461</v>
       </c>
       <c r="D136" t="n">
-        <v>0.2417703005217829</v>
+        <v>0.2417779668519869</v>
       </c>
     </row>
     <row r="137">
@@ -2625,10 +2625,10 @@
         <v>0.6178632974624634</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.4677070477131579</v>
+        <v>-0.03327129071296313</v>
       </c>
       <c r="D137" t="n">
-        <v>0.464358189018946</v>
+        <v>0.4643626477053078</v>
       </c>
     </row>
     <row r="138">
@@ -2641,10 +2641,10 @@
         <v>0.5990484952926636</v>
       </c>
       <c r="C138" t="n">
-        <v>-2.099012950090481</v>
+        <v>-0.1493031520709748</v>
       </c>
       <c r="D138" t="n">
-        <v>0.386546060104224</v>
+        <v>0.3865536400209143</v>
       </c>
     </row>
     <row r="139">
@@ -2657,10 +2657,10 @@
         <v>0.6203866004943848</v>
       </c>
       <c r="C139" t="n">
-        <v>4.240680368131419</v>
+        <v>0.3016390102527875</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6889449130957964</v>
+        <v>0.6889478424650685</v>
       </c>
     </row>
     <row r="140">
@@ -2673,10 +2673,10 @@
         <v>0.5518020391464233</v>
       </c>
       <c r="C140" t="n">
-        <v>2.341309251154587</v>
+        <v>0.1665277720329574</v>
       </c>
       <c r="D140" t="n">
-        <v>0.5983462644942567</v>
+        <v>0.5983445267046014</v>
       </c>
     </row>
     <row r="141">
@@ -2689,10 +2689,10 @@
         <v>0.5932838320732117</v>
       </c>
       <c r="C141" t="n">
-        <v>4.475018783576592</v>
+        <v>0.3183004299438215</v>
       </c>
       <c r="D141" t="n">
-        <v>0.7001226884999793</v>
+        <v>0.7001207092759572</v>
       </c>
     </row>
     <row r="142">
@@ -2705,10 +2705,10 @@
         <v>0.5782764554023743</v>
       </c>
       <c r="C142" t="n">
-        <v>-2.249312386625144</v>
+        <v>-0.1599888814842479</v>
       </c>
       <c r="D142" t="n">
-        <v>0.3793768840996488</v>
+        <v>0.3793879702445301</v>
       </c>
     </row>
     <row r="143">
@@ -2721,10 +2721,10 @@
         <v>0.5907612442970276</v>
       </c>
       <c r="C143" t="n">
-        <v>4.30019523001895</v>
+        <v>0.3058833569619598</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6917837295917005</v>
+        <v>0.6917940297264298</v>
       </c>
     </row>
     <row r="144">
@@ -2737,10 +2737,10 @@
         <v>0.4650152027606964</v>
       </c>
       <c r="C144" t="n">
-        <v>-2.042539358456739</v>
+        <v>-0.1452891201125418</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3892398101765299</v>
+        <v>0.389245382097993</v>
       </c>
     </row>
     <row r="145">
@@ -2753,10 +2753,10 @@
         <v>0.5776482820510864</v>
       </c>
       <c r="C145" t="n">
-        <v>4.748876617590916</v>
+        <v>0.3377885441736295</v>
       </c>
       <c r="D145" t="n">
-        <v>0.7131855120044946</v>
+        <v>0.713189109731784</v>
       </c>
     </row>
     <row r="146">
@@ -2769,10 +2769,10 @@
         <v>0.6327609419822693</v>
       </c>
       <c r="C146" t="n">
-        <v>3.393447979649222</v>
+        <v>0.2413789695608478</v>
       </c>
       <c r="D146" t="n">
-        <v>0.6485325319861399</v>
+        <v>0.6485384763273145</v>
       </c>
     </row>
     <row r="147">
@@ -2785,10 +2785,10 @@
         <v>0.5031437873840332</v>
       </c>
       <c r="C147" t="n">
-        <v>-1.703098806054957</v>
+        <v>-0.1211401525536071</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4054308826074459</v>
+        <v>0.4054392721241619</v>
       </c>
     </row>
     <row r="148">
@@ -2801,10 +2801,10 @@
         <v>0.6016309261322021</v>
       </c>
       <c r="C148" t="n">
-        <v>1.534901378466397</v>
+        <v>0.1091837268139669</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5598811836924178</v>
+        <v>0.5598905779109018</v>
       </c>
     </row>
     <row r="149">
@@ -2817,10 +2817,10 @@
         <v>0.5098466873168945</v>
       </c>
       <c r="C149" t="n">
-        <v>-4.049678007952124</v>
+        <v>-0.2880533877808993</v>
       </c>
       <c r="D149" t="n">
-        <v>0.2935007270795747</v>
+        <v>0.2935100739674988</v>
       </c>
     </row>
     <row r="150">
@@ -2833,10 +2833,10 @@
         <v>0.6353102922439575</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.6044445888938974</v>
+        <v>-0.04300422544445902</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4578359057572155</v>
+        <v>0.4578359059599693</v>
       </c>
     </row>
     <row r="151">
@@ -2849,10 +2849,10 @@
         <v>0.6406639814376831</v>
       </c>
       <c r="C151" t="n">
-        <v>-1.130732046994329</v>
+        <v>-0.08042755133130047</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4327323690899154</v>
+        <v>0.4327404553016338</v>
       </c>
     </row>
     <row r="152">
@@ -2865,10 +2865,10 @@
         <v>0.5315443277359009</v>
       </c>
       <c r="C152" t="n">
-        <v>-5.021253516118691</v>
+        <v>-0.3571613013994617</v>
       </c>
       <c r="D152" t="n">
-        <v>0.2471572677800833</v>
+        <v>0.2471674735914872</v>
       </c>
     </row>
     <row r="153">
@@ -2881,10 +2881,10 @@
         <v>0.52373206615448</v>
       </c>
       <c r="C153" t="n">
-        <v>1.875000599914767</v>
+        <v>0.1333641407000698</v>
       </c>
       <c r="D153" t="n">
-        <v>0.5761036741674238</v>
+        <v>0.5761055553132761</v>
       </c>
     </row>
     <row r="154">
@@ -2897,10 +2897,10 @@
         <v>0.6203064918518066</v>
       </c>
       <c r="C154" t="n">
-        <v>1.142713568066819</v>
+        <v>0.08128514499203493</v>
       </c>
       <c r="D154" t="n">
-        <v>0.5411741046478795</v>
+        <v>0.5411822598510149</v>
       </c>
     </row>
     <row r="155">
@@ -2913,10 +2913,10 @@
         <v>0.5793581008911133</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7748305868251087</v>
+        <v>0.0551242069111334</v>
       </c>
       <c r="D155" t="n">
-        <v>0.5236263486321651</v>
+        <v>0.5236391763535677</v>
       </c>
     </row>
     <row r="156">
@@ -2929,10 +2929,10 @@
         <v>0.5084507465362549</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.1470476488998137</v>
+        <v>-0.0104634505006223</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4796534138089866</v>
+        <v>0.4796572003702074</v>
       </c>
     </row>
     <row r="157">
@@ -2945,10 +2945,10 @@
         <v>0.5356773138046265</v>
       </c>
       <c r="C157" t="n">
-        <v>-4.865005559000608</v>
+        <v>-0.3460594316387289</v>
       </c>
       <c r="D157" t="n">
-        <v>0.2546101839769881</v>
+        <v>0.2546122000606998</v>
       </c>
     </row>
     <row r="158">
@@ -2961,10 +2961,10 @@
         <v>0.6338465809822083</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.1722418220289565</v>
+        <v>-0.01225047535902286</v>
       </c>
       <c r="D158" t="n">
-        <v>0.4784516697065668</v>
+        <v>0.4784588516639803</v>
       </c>
     </row>
     <row r="159">
@@ -2977,10 +2977,10 @@
         <v>0.5621199607849121</v>
       </c>
       <c r="C159" t="n">
-        <v>2.617623116924626</v>
+        <v>0.1861986776519983</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6115262389631103</v>
+        <v>0.611535503980648</v>
       </c>
     </row>
     <row r="160">
@@ -2993,10 +2993,10 @@
         <v>0.5745136737823486</v>
       </c>
       <c r="C160" t="n">
-        <v>0.1676213364046273</v>
+        <v>0.01192226046048074</v>
       </c>
       <c r="D160" t="n">
-        <v>0.4946629001440092</v>
+        <v>0.494668680284494</v>
       </c>
     </row>
     <row r="161">
@@ -3009,10 +3009,10 @@
         <v>0.4760896563529968</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.9027451719606985</v>
+        <v>-0.06421521739207681</v>
       </c>
       <c r="D161" t="n">
-        <v>0.4436071805431987</v>
+        <v>0.4436121727876337</v>
       </c>
     </row>
     <row r="162">
@@ -3025,10 +3025,10 @@
         <v>0.5635689496994019</v>
       </c>
       <c r="C162" t="n">
-        <v>-3.707940886451239</v>
+        <v>-0.2637478876814519</v>
       </c>
       <c r="D162" t="n">
-        <v>0.3098013442197574</v>
+        <v>0.3098089320731682</v>
       </c>
     </row>
     <row r="163">
@@ -3041,10 +3041,10 @@
         <v>0.6212589740753174</v>
       </c>
       <c r="C163" t="n">
-        <v>2.89955811863117</v>
+        <v>0.2062543674016997</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6249743376099622</v>
+        <v>0.62498451099981</v>
       </c>
     </row>
     <row r="164">
@@ -3057,10 +3057,10 @@
         <v>0.5993941426277161</v>
       </c>
       <c r="C164" t="n">
-        <v>1.62027912877211</v>
+        <v>0.1152489034919345</v>
       </c>
       <c r="D164" t="n">
-        <v>0.5639536415334369</v>
+        <v>0.5639577830149126</v>
       </c>
     </row>
     <row r="165">
@@ -3073,10 +3073,10 @@
         <v>0.6187034845352173</v>
       </c>
       <c r="C165" t="n">
-        <v>0.2466088405727034</v>
+        <v>0.01754270343946615</v>
       </c>
       <c r="D165" t="n">
-        <v>0.4984305477985794</v>
+        <v>0.4984376544767827</v>
       </c>
     </row>
     <row r="166">
@@ -3089,10 +3089,10 @@
         <v>0.5395313501358032</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.8121115449893903</v>
+        <v>-0.0577627157435438</v>
       </c>
       <c r="D166" t="n">
-        <v>0.4479303399553131</v>
+        <v>0.4479391114791123</v>
       </c>
     </row>
     <row r="167">
@@ -3105,10 +3105,10 @@
         <v>0.5991362333297729</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.8878585239381908</v>
+        <v>-0.06315398920631871</v>
       </c>
       <c r="D167" t="n">
-        <v>0.444317263044186</v>
+        <v>0.444323814496162</v>
       </c>
     </row>
     <row r="168">
@@ -3121,10 +3121,10 @@
         <v>0.6599998474121094</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.1633117049672299</v>
+        <v>-0.01161036993845507</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4788776299259334</v>
+        <v>0.4788880955544503</v>
       </c>
     </row>
     <row r="169">
@@ -3137,10 +3137,10 @@
         <v>0.6455689668655396</v>
       </c>
       <c r="C169" t="n">
-        <v>0.5704828334346017</v>
+        <v>0.04058155255317704</v>
       </c>
       <c r="D169" t="n">
-        <v>0.5138791064337008</v>
+        <v>0.5138871178116613</v>
       </c>
     </row>
     <row r="170">
@@ -3153,10 +3153,10 @@
         <v>0.5033893585205078</v>
       </c>
       <c r="C170" t="n">
-        <v>-3.686926703136106</v>
+        <v>-0.2622576851618097</v>
       </c>
       <c r="D170" t="n">
-        <v>0.3108037057871199</v>
+        <v>0.3108082367291917</v>
       </c>
     </row>
     <row r="171">
@@ -3169,10 +3169,10 @@
         <v>0.6454187631607056</v>
       </c>
       <c r="C171" t="n">
-        <v>-2.652619583877794</v>
+        <v>-0.1886909029334878</v>
       </c>
       <c r="D171" t="n">
-        <v>0.3601394182269853</v>
+        <v>0.3601408791321084</v>
       </c>
     </row>
     <row r="172">
@@ -3185,10 +3185,10 @@
         <v>0.530933141708374</v>
       </c>
       <c r="C172" t="n">
-        <v>-1.356390641077888</v>
+        <v>-0.09648115709113048</v>
       </c>
       <c r="D172" t="n">
-        <v>0.4219686149785891</v>
+        <v>0.4219751782535069</v>
       </c>
     </row>
     <row r="173">
@@ -3201,10 +3201,10 @@
         <v>0.6242344975471497</v>
       </c>
       <c r="C173" t="n">
-        <v>1.217433647825902</v>
+        <v>0.08661003469981282</v>
       </c>
       <c r="D173" t="n">
-        <v>0.5447381991995262</v>
+        <v>0.5447530410083786</v>
       </c>
     </row>
     <row r="174">
@@ -3217,10 +3217,10 @@
         <v>0.587064266204834</v>
       </c>
       <c r="C174" t="n">
-        <v>6.830805568408477</v>
+        <v>0.4858811085223066</v>
       </c>
       <c r="D174" t="n">
-        <v>0.8124920391716093</v>
+        <v>0.8124974836779209</v>
       </c>
     </row>
     <row r="175">
@@ -3233,10 +3233,10 @@
         <v>0.6638534069061279</v>
       </c>
       <c r="C175" t="n">
-        <v>-2.2819510346928</v>
+        <v>-0.1623090271763461</v>
       </c>
       <c r="D175" t="n">
-        <v>0.3778200438483253</v>
+        <v>0.377832119705958</v>
       </c>
     </row>
     <row r="176">
@@ -3249,10 +3249,10 @@
         <v>0.4918597936630249</v>
       </c>
       <c r="C176" t="n">
-        <v>-3.334439759740826</v>
+        <v>-0.2371803052398787</v>
       </c>
       <c r="D176" t="n">
-        <v>0.3276170817702871</v>
+        <v>0.3276247044149896</v>
       </c>
     </row>
     <row r="177">
@@ -3265,10 +3265,10 @@
         <v>0.5213007926940918</v>
       </c>
       <c r="C177" t="n">
-        <v>-3.116676645162364</v>
+        <v>-0.2217025563618549</v>
       </c>
       <c r="D177" t="n">
-        <v>0.338004227136314</v>
+        <v>0.3380038215582665</v>
       </c>
     </row>
     <row r="178">
@@ -3281,10 +3281,10 @@
         <v>0.6202660799026489</v>
       </c>
       <c r="C178" t="n">
-        <v>3.15744088102166</v>
+        <v>0.2246010273956689</v>
       </c>
       <c r="D178" t="n">
-        <v>0.6372751615834245</v>
+        <v>0.6372874715120878</v>
       </c>
     </row>
     <row r="179">
@@ -3297,10 +3297,10 @@
         <v>0.5506722927093506</v>
       </c>
       <c r="C179" t="n">
-        <v>1.741186182600357</v>
+        <v>0.1238529990611772</v>
       </c>
       <c r="D179" t="n">
-        <v>0.5697208218308123</v>
+        <v>0.5697275442721144</v>
       </c>
     </row>
     <row r="180">
@@ -3313,10 +3313,10 @@
         <v>0.5470341444015503</v>
       </c>
       <c r="C180" t="n">
-        <v>-1.621319799511857</v>
+        <v>-0.1153219404031822</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4093316829358062</v>
+        <v>0.4093408669846031</v>
       </c>
     </row>
     <row r="181">
@@ -3329,10 +3329,10 @@
         <v>0.566189169883728</v>
       </c>
       <c r="C181" t="n">
-        <v>2.831841984803995</v>
+        <v>0.2014355080777855</v>
       </c>
       <c r="D181" t="n">
-        <v>0.6217443262875684</v>
+        <v>0.6217530652764017</v>
       </c>
     </row>
     <row r="182">
@@ -3345,10 +3345,10 @@
         <v>0.573798656463623</v>
       </c>
       <c r="C182" t="n">
-        <v>-3.366502059479402</v>
+        <v>-0.2394577933102367</v>
       </c>
       <c r="D182" t="n">
-        <v>0.3260877329234984</v>
+        <v>0.3260974593575237</v>
       </c>
     </row>
     <row r="183">
@@ -3361,10 +3361,10 @@
         <v>0.6526918411254883</v>
       </c>
       <c r="C183" t="n">
-        <v>-3.441677739129548</v>
+        <v>-0.2448122493416835</v>
       </c>
       <c r="D183" t="n">
-        <v>0.3225019065817532</v>
+        <v>0.3225068515225678</v>
       </c>
     </row>
     <row r="184">
@@ -3377,10 +3377,10 @@
         <v>0.6426115036010742</v>
       </c>
       <c r="C184" t="n">
-        <v>3.248656386393672</v>
+        <v>0.2310836503526219</v>
       </c>
       <c r="D184" t="n">
-        <v>0.6416260761805488</v>
+        <v>0.6416346090445648</v>
       </c>
     </row>
     <row r="185">
@@ -3393,10 +3393,10 @@
         <v>0.5571202039718628</v>
       </c>
       <c r="C185" t="n">
-        <v>4.133481785875788</v>
+        <v>0.2940154014396922</v>
       </c>
       <c r="D185" t="n">
-        <v>0.6838316171224327</v>
+        <v>0.683835579076561</v>
       </c>
     </row>
     <row r="186">
@@ -3409,10 +3409,10 @@
         <v>0.5633779764175415</v>
       </c>
       <c r="C186" t="n">
-        <v>-3.56965293120209</v>
+        <v>-0.2539136953343414</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3163975811275738</v>
+        <v>0.3164035754663751</v>
       </c>
     </row>
     <row r="187">
@@ -3425,10 +3425,10 @@
         <v>0.572900116443634</v>
       </c>
       <c r="C187" t="n">
-        <v>-1.084846824803114</v>
+        <v>-0.07716094257816535</v>
       </c>
       <c r="D187" t="n">
-        <v>0.434921061486124</v>
+        <v>0.4349309879932569</v>
       </c>
     </row>
     <row r="188">
@@ -3441,10 +3441,10 @@
         <v>0.6103224754333496</v>
       </c>
       <c r="C188" t="n">
-        <v>2.9615868073947</v>
+        <v>0.210665449831396</v>
       </c>
       <c r="D188" t="n">
-        <v>0.6279330618562518</v>
+        <v>0.6279425084209643</v>
       </c>
     </row>
     <row r="189">
@@ -3457,10 +3457,10 @@
         <v>0.6355587244033813</v>
       </c>
       <c r="C189" t="n">
-        <v>-1.232230025801626</v>
+        <v>-0.08764330790555414</v>
       </c>
       <c r="D189" t="n">
-        <v>0.4278909878382277</v>
+        <v>0.4279016907402132</v>
       </c>
     </row>
     <row r="190">
@@ -3473,10 +3473,10 @@
         <v>0.61600661277771</v>
       </c>
       <c r="C190" t="n">
-        <v>-2.544461296523357</v>
+        <v>-0.1809859910573401</v>
       </c>
       <c r="D190" t="n">
-        <v>0.365298491449582</v>
+        <v>0.3653076629823561</v>
       </c>
     </row>
     <row r="191">
@@ -3489,10 +3489,10 @@
         <v>0.5528470277786255</v>
       </c>
       <c r="C191" t="n">
-        <v>2.662004387923395</v>
+        <v>0.1893493223831046</v>
       </c>
       <c r="D191" t="n">
-        <v>0.6136431939593026</v>
+        <v>0.6136482731564958</v>
       </c>
     </row>
     <row r="192">
@@ -3505,10 +3505,10 @@
         <v>0.6331571340560913</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.1721876909743929</v>
+        <v>-0.0122513801398012</v>
       </c>
       <c r="D192" t="n">
-        <v>0.4784542517192903</v>
+        <v>0.4784582449332625</v>
       </c>
     </row>
     <row r="193">
@@ -3521,10 +3521,10 @@
         <v>0.492002546787262</v>
       </c>
       <c r="C193" t="n">
-        <v>3.123863418410827</v>
+        <v>0.2222017457495488</v>
       </c>
       <c r="D193" t="n">
-        <v>0.6356735405474828</v>
+        <v>0.635678553738512</v>
       </c>
     </row>
     <row r="194">
@@ -3537,10 +3537,10 @@
         <v>0.5528888702392578</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.3364673090385648</v>
+        <v>-0.02392509959917349</v>
       </c>
       <c r="D194" t="n">
-        <v>0.470618231019407</v>
+        <v>0.470630045708593</v>
       </c>
     </row>
     <row r="195">
@@ -3553,10 +3553,10 @@
         <v>0.6451815962791443</v>
       </c>
       <c r="C195" t="n">
-        <v>6.250884910578463</v>
+        <v>0.4446283479638328</v>
       </c>
       <c r="D195" t="n">
-        <v>0.7848302371014897</v>
+        <v>0.7848340787671533</v>
       </c>
     </row>
     <row r="196">
@@ -3569,10 +3569,10 @@
         <v>0.5537900924682617</v>
       </c>
       <c r="C196" t="n">
-        <v>1.414057886302047</v>
+        <v>0.1005724691052948</v>
       </c>
       <c r="D196" t="n">
-        <v>0.55411703524111</v>
+        <v>0.5541160138438909</v>
       </c>
     </row>
     <row r="197">
@@ -3585,10 +3585,10 @@
         <v>0.6298319101333618</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.2782890195699348</v>
+        <v>-0.01980394645541479</v>
       </c>
       <c r="D197" t="n">
-        <v>0.4733932939635022</v>
+        <v>0.4733936214444151</v>
       </c>
     </row>
     <row r="198">
@@ -3601,10 +3601,10 @@
         <v>0.589600682258606</v>
       </c>
       <c r="C198" t="n">
-        <v>3.92677452646101</v>
+        <v>0.2793138467393055</v>
       </c>
       <c r="D198" t="n">
-        <v>0.6739718281682263</v>
+        <v>0.6739769646471551</v>
       </c>
     </row>
     <row r="199">
@@ -3617,10 +3617,10 @@
         <v>0.4866994321346283</v>
       </c>
       <c r="C199" t="n">
-        <v>3.613867877854517</v>
+        <v>0.257066782999868</v>
       </c>
       <c r="D199" t="n">
-        <v>0.6590464040376818</v>
+        <v>0.6590584592194425</v>
       </c>
     </row>
     <row r="200">
@@ -3633,10 +3633,10 @@
         <v>0.6090582609176636</v>
       </c>
       <c r="C200" t="n">
-        <v>-3.915403186797074</v>
+        <v>-0.2785054479402334</v>
       </c>
       <c r="D200" t="n">
-        <v>0.2999055403512558</v>
+        <v>0.2999127612616401</v>
       </c>
     </row>
     <row r="201">
@@ -3649,10 +3649,10 @@
         <v>0.5265689492225647</v>
       </c>
       <c r="C201" t="n">
-        <v>-2.836232546656674</v>
+        <v>-0.2017484384611823</v>
       </c>
       <c r="D201" t="n">
-        <v>0.351381210763049</v>
+        <v>0.3513847162099364</v>
       </c>
     </row>
     <row r="202">
@@ -3665,10 +3665,10 @@
         <v>0.5960564613342285</v>
       </c>
       <c r="C202" t="n">
-        <v>4.056547251167148</v>
+        <v>0.2885383430411133</v>
       </c>
       <c r="D202" t="n">
-        <v>0.68016189464793</v>
+        <v>0.6801627561636544</v>
       </c>
     </row>
     <row r="203">
@@ -3681,10 +3681,10 @@
         <v>0.5871102809906006</v>
       </c>
       <c r="C203" t="n">
-        <v>-1.540833994740666</v>
+        <v>-0.1095983974891597</v>
       </c>
       <c r="D203" t="n">
-        <v>0.4131707984613089</v>
+        <v>0.4131789782530679</v>
       </c>
     </row>
     <row r="204">
@@ -3697,10 +3697,10 @@
         <v>0.6741257905960083</v>
       </c>
       <c r="C204" t="n">
-        <v>-1.046556075193754</v>
+        <v>-0.07443537820693238</v>
       </c>
       <c r="D204" t="n">
-        <v>0.4367475029527447</v>
+        <v>0.4367587054548533</v>
       </c>
     </row>
     <row r="205">
@@ -3713,10 +3713,10 @@
         <v>0.5321112275123596</v>
       </c>
       <c r="C205" t="n">
-        <v>-5.056767456552042</v>
+        <v>-0.3596934983110542</v>
       </c>
       <c r="D205" t="n">
-        <v>0.2454632781321316</v>
+        <v>0.2454694250844088</v>
       </c>
     </row>
     <row r="206">
@@ -3729,10 +3729,10 @@
         <v>0.4561171531677246</v>
       </c>
       <c r="C206" t="n">
-        <v>4.232364994690344</v>
+        <v>0.3010613150574741</v>
       </c>
       <c r="D206" t="n">
-        <v>0.6885482757090083</v>
+        <v>0.6885604498182102</v>
       </c>
     </row>
     <row r="207">
@@ -3745,10 +3745,10 @@
         <v>0.6764531135559082</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.1736810726664398</v>
+        <v>-0.01236025072398483</v>
       </c>
       <c r="D207" t="n">
-        <v>0.4783830184769101</v>
+        <v>0.4783852381571735</v>
       </c>
     </row>
     <row r="208">
@@ -3761,10 +3761,10 @@
         <v>0.5285143852233887</v>
       </c>
       <c r="C208" t="n">
-        <v>-4.801982249207087</v>
+        <v>-0.3415760744325742</v>
       </c>
       <c r="D208" t="n">
-        <v>0.2576163509375436</v>
+        <v>0.2576186637269959</v>
       </c>
     </row>
     <row r="209">
@@ -3777,10 +3777,10 @@
         <v>0.5768609046936035</v>
       </c>
       <c r="C209" t="n">
-        <v>8.372846713377495</v>
+        <v>0.5955693714820917</v>
       </c>
       <c r="D209" t="n">
-        <v>0.8860463027767815</v>
+        <v>0.8860525813522752</v>
       </c>
     </row>
     <row r="210">
@@ -3793,10 +3793,10 @@
         <v>0.5760594606399536</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.2293548187045757</v>
+        <v>-0.01630956430650148</v>
       </c>
       <c r="D210" t="n">
-        <v>0.475727420469466</v>
+        <v>0.4757368951305804</v>
       </c>
     </row>
     <row r="211">
@@ -3809,10 +3809,10 @@
         <v>0.4830807745456696</v>
       </c>
       <c r="C211" t="n">
-        <v>1.447242935300229</v>
+        <v>0.102939144010182</v>
       </c>
       <c r="D211" t="n">
-        <v>0.5556999384274007</v>
+        <v>0.5557030660871765</v>
       </c>
     </row>
     <row r="212">
@@ -3825,10 +3825,10 @@
         <v>0.5412576794624329</v>
       </c>
       <c r="C212" t="n">
-        <v>5.35601311371095</v>
+        <v>0.3809841151387215</v>
       </c>
       <c r="D212" t="n">
-        <v>0.742145490164371</v>
+        <v>0.7421553305078548</v>
       </c>
     </row>
     <row r="213">
@@ -3841,10 +3841,10 @@
         <v>0.6182757616043091</v>
       </c>
       <c r="C213" t="n">
-        <v>-5.321778791778677</v>
+        <v>-0.3785420355123387</v>
       </c>
       <c r="D213" t="n">
-        <v>0.2328224263149059</v>
+        <v>0.232829914188266</v>
       </c>
     </row>
     <row r="214">
@@ -3857,10 +3857,10 @@
         <v>0.5890517234802246</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.1499019255814782</v>
+        <v>-0.01066601537747972</v>
       </c>
       <c r="D214" t="n">
-        <v>0.4795172668455089</v>
+        <v>0.4795213637829501</v>
       </c>
     </row>
     <row r="215">
@@ -3873,10 +3873,10 @@
         <v>0.5821247100830078</v>
       </c>
       <c r="C215" t="n">
-        <v>2.36119562725429</v>
+        <v>0.167957990963481</v>
       </c>
       <c r="D215" t="n">
-        <v>0.5992948304612293</v>
+        <v>0.599303607378246</v>
       </c>
     </row>
     <row r="216">
@@ -3889,10 +3889,10 @@
         <v>0.5634008646011353</v>
       </c>
       <c r="C216" t="n">
-        <v>-5.500561784690567</v>
+        <v>-0.3912647721656485</v>
       </c>
       <c r="D216" t="n">
-        <v>0.2242946049713145</v>
+        <v>0.2242982617400693</v>
       </c>
     </row>
     <row r="217">
@@ -3905,10 +3905,10 @@
         <v>0.5684226751327515</v>
       </c>
       <c r="C217" t="n">
-        <v>-2.621249713208771</v>
+        <v>-0.1864526950239564</v>
       </c>
       <c r="D217" t="n">
-        <v>0.3616357387006492</v>
+        <v>0.3616417835767475</v>
       </c>
     </row>
     <row r="218">
@@ -3921,10 +3921,10 @@
         <v>0.5946061611175537</v>
       </c>
       <c r="C218" t="n">
-        <v>1.290126850089659</v>
+        <v>0.0917678828493709</v>
       </c>
       <c r="D218" t="n">
-        <v>0.5482056131391976</v>
+        <v>0.5482118069163531</v>
       </c>
     </row>
     <row r="219">
@@ -3937,10 +3937,10 @@
         <v>0.6323237419128418</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.3741764909850918</v>
+        <v>-0.02661445069517687</v>
       </c>
       <c r="D219" t="n">
-        <v>0.4688195299158213</v>
+        <v>0.468826612258109</v>
       </c>
     </row>
     <row r="220">
@@ -3953,10 +3953,10 @@
         <v>0.6196117997169495</v>
       </c>
       <c r="C220" t="n">
-        <v>-4.067372274302679</v>
+        <v>-0.2893174481403537</v>
       </c>
       <c r="D220" t="n">
-        <v>0.2926567231853239</v>
+        <v>0.2926624164269648</v>
       </c>
     </row>
     <row r="221">
@@ -3969,10 +3969,10 @@
         <v>0.4567658305168152</v>
       </c>
       <c r="C221" t="n">
-        <v>3.608571333977643</v>
+        <v>0.2566792941751326</v>
       </c>
       <c r="D221" t="n">
-        <v>0.6587937626695919</v>
+        <v>0.6587986157541341</v>
       </c>
     </row>
     <row r="222">
@@ -3985,10 +3985,10 @@
         <v>0.6442804336547852</v>
       </c>
       <c r="C222" t="n">
-        <v>-1.002757526247601</v>
+        <v>-0.07132758772878364</v>
       </c>
       <c r="D222" t="n">
-        <v>0.4388366625223319</v>
+        <v>0.4388427372920196</v>
       </c>
     </row>
     <row r="223">
@@ -4001,10 +4001,10 @@
         <v>0.5998255014419556</v>
       </c>
       <c r="C223" t="n">
-        <v>4.931148342799559</v>
+        <v>0.3507490658918175</v>
       </c>
       <c r="D223" t="n">
-        <v>0.721879743392228</v>
+        <v>0.7218802168308308</v>
       </c>
     </row>
     <row r="224">
@@ -4017,10 +4017,10 @@
         <v>0.574633777141571</v>
       </c>
       <c r="C224" t="n">
-        <v>2.190638990398318</v>
+        <v>0.1558285671756828</v>
       </c>
       <c r="D224" t="n">
-        <v>0.5911594004385966</v>
+        <v>0.5911698205229264</v>
       </c>
     </row>
     <row r="225">
@@ -4033,10 +4033,10 @@
         <v>0.5412338972091675</v>
       </c>
       <c r="C225" t="n">
-        <v>-1.47465806978695</v>
+        <v>-0.1048904697498226</v>
       </c>
       <c r="D225" t="n">
-        <v>0.4163273429181429</v>
+        <v>0.4163360351283117</v>
       </c>
     </row>
     <row r="226">
@@ -4049,10 +4049,10 @@
         <v>0.4920902252197266</v>
       </c>
       <c r="C226" t="n">
-        <v>-9.415955597434948</v>
+        <v>-0.6697714682910516</v>
       </c>
       <c r="D226" t="n">
-        <v>0.03753311059728048</v>
+        <v>0.0375363723301117</v>
       </c>
     </row>
     <row r="227">
@@ -4065,10 +4065,10 @@
         <v>0.4851574897766113</v>
       </c>
       <c r="C227" t="n">
-        <v>2.655779766408384</v>
+        <v>0.1889138241267662</v>
       </c>
       <c r="D227" t="n">
-        <v>0.6133462839493127</v>
+        <v>0.6133562353767223</v>
       </c>
     </row>
     <row r="228">
@@ -4081,10 +4081,10 @@
         <v>0.5544612407684326</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.4800210363995367</v>
+        <v>-0.03414059323415396</v>
       </c>
       <c r="D228" t="n">
-        <v>0.4637708205347625</v>
+        <v>0.4637797081078579</v>
       </c>
     </row>
     <row r="229">
@@ -4097,10 +4097,10 @@
         <v>0.5901710987091064</v>
       </c>
       <c r="C229" t="n">
-        <v>-2.382271548354402</v>
+        <v>-0.1694556979306965</v>
       </c>
       <c r="D229" t="n">
-        <v>0.37303482684491</v>
+        <v>0.3730396829292408</v>
       </c>
     </row>
     <row r="230">
@@ -4113,10 +4113,10 @@
         <v>0.6094723343849182</v>
       </c>
       <c r="C230" t="n">
-        <v>2.267302719800259</v>
+        <v>0.1612830867439621</v>
       </c>
       <c r="D230" t="n">
-        <v>0.5948162056929722</v>
+        <v>0.5948275292766748</v>
       </c>
     </row>
     <row r="231">
@@ -4129,10 +4129,10 @@
         <v>0.4732765555381775</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.8944322296521154</v>
+        <v>-0.06361714663880108</v>
       </c>
       <c r="D231" t="n">
-        <v>0.4440037019666996</v>
+        <v>0.4440132289397353</v>
       </c>
     </row>
     <row r="232">
@@ -4145,10 +4145,10 @@
         <v>0.603614866733551</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.6553602292124601</v>
+        <v>-0.04661438245300405</v>
       </c>
       <c r="D232" t="n">
-        <v>0.4554072660015021</v>
+        <v>0.4554149956071393</v>
       </c>
     </row>
     <row r="233">
@@ -4161,10 +4161,10 @@
         <v>0.524871826171875</v>
       </c>
       <c r="C233" t="n">
-        <v>-2.894226998947138</v>
+        <v>-0.205864791766502</v>
       </c>
       <c r="D233" t="n">
-        <v>0.3486149167213319</v>
+        <v>0.3486243591647533</v>
       </c>
     </row>
     <row r="234">
@@ -4177,7 +4177,7 @@
         <v>0.5136862993240356</v>
       </c>
       <c r="C234" t="n">
-        <v>-10.20282501876934</v>
+        <v>-0.7257471872946474</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
@@ -4193,10 +4193,10 @@
         <v>0.414790153503418</v>
       </c>
       <c r="C235" t="n">
-        <v>4.023039729072553</v>
+        <v>0.2861668443765962</v>
       </c>
       <c r="D235" t="n">
-        <v>0.6785636097247664</v>
+        <v>0.678572469188583</v>
       </c>
     </row>
     <row r="236">
@@ -4209,10 +4209,10 @@
         <v>0.5506206750869751</v>
       </c>
       <c r="C236" t="n">
-        <v>0.3711569600469486</v>
+        <v>0.02640321835724088</v>
       </c>
       <c r="D236" t="n">
-        <v>0.5043714043322882</v>
+        <v>0.5043793662209184</v>
       </c>
     </row>
     <row r="237">
@@ -4225,10 +4225,10 @@
         <v>0.4756091237068176</v>
       </c>
       <c r="C237" t="n">
-        <v>3.54239908875117</v>
+        <v>0.2519684875292581</v>
       </c>
       <c r="D237" t="n">
-        <v>0.655637393733125</v>
+        <v>0.6556396283327603</v>
       </c>
     </row>
     <row r="238">
@@ -4241,10 +4241,10 @@
         <v>0.5327391028404236</v>
       </c>
       <c r="C238" t="n">
-        <v>3.80955476129686</v>
+        <v>0.2709846654254578</v>
       </c>
       <c r="D238" t="n">
-        <v>0.6683805289122045</v>
+        <v>0.6683915562492475</v>
       </c>
     </row>
     <row r="239">
@@ -4257,10 +4257,10 @@
         <v>0.5671290159225464</v>
       </c>
       <c r="C239" t="n">
-        <v>2.083135815428003</v>
+        <v>0.1481748342366606</v>
       </c>
       <c r="D239" t="n">
-        <v>0.5860315756098251</v>
+        <v>0.586037356404048</v>
       </c>
     </row>
     <row r="240">
@@ -4273,10 +4273,10 @@
         <v>0.5650286078453064</v>
       </c>
       <c r="C240" t="n">
-        <v>-5.372560075919779</v>
+        <v>-0.3821599271473691</v>
       </c>
       <c r="D240" t="n">
-        <v>0.2304001952531018</v>
+        <v>0.2304038171254704</v>
       </c>
     </row>
     <row r="241">
@@ -4289,10 +4289,10 @@
         <v>0.6234201192855835</v>
       </c>
       <c r="C241" t="n">
-        <v>5.189667889139026</v>
+        <v>0.3691477525814104</v>
       </c>
       <c r="D241" t="n">
-        <v>0.7342109415062218</v>
+        <v>0.734218065567017</v>
       </c>
     </row>
   </sheetData>
